--- a/Module02/DuongThaiBao_Module02.xlsx
+++ b/Module02/DuongThaiBao_Module02.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitPull\1.IUH-Project\Lab-KiemThuPhanMem\Module02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Lab-KiemThuPhanMem\Module02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B056CE6-0E8C-41E8-B9C9-E0C9A8ECDE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 01" sheetId="1" r:id="rId1"/>
@@ -20,6 +19,12 @@
     <sheet name="Bài 05" sheetId="5" r:id="rId5"/>
     <sheet name="Bài 06" sheetId="6" r:id="rId6"/>
     <sheet name="Bài 07" sheetId="7" r:id="rId7"/>
+    <sheet name="Bài 08" sheetId="8" r:id="rId8"/>
+    <sheet name="Bài 09" sheetId="9" r:id="rId9"/>
+    <sheet name="Bài 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Bài 11" sheetId="11" r:id="rId11"/>
+    <sheet name="Bài 12" sheetId="12" r:id="rId12"/>
+    <sheet name="Bài 13" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="208">
   <si>
     <t>Đề bài</t>
   </si>
@@ -351,9 +356,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>Năm nhuận &gt;= 1582</t>
-  </si>
-  <si>
     <t>For vaild partition</t>
   </si>
   <si>
@@ -369,12 +371,6 @@
     <t>sbin</t>
   </si>
   <si>
-    <t>{0,1}</t>
-  </si>
-  <si>
-    <t>Không thuộc {0,1}</t>
-  </si>
-  <si>
     <t>Expection result</t>
   </si>
   <si>
@@ -414,15 +410,6 @@
     <t>c = 0</t>
   </si>
   <si>
-    <t>{a + b &gt; c, b + c &gt;a , c + a&gt; b} &amp;&amp; { a = b = c &gt; 0 }</t>
-  </si>
-  <si>
-    <t>{a + b &gt; c, b + c &gt;a , c + a&gt; b} &amp;&amp; {a ≠ b ≠ c ≠ 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{a + b &gt; c, b + c &gt;a , c + a&gt; b} &amp;&amp; {{a = b ≠ c} || {b = c ≠ a} || {a = c ≠ b}} &amp;&amp; {a,b,c ≠ 0} </t>
-  </si>
-  <si>
     <t xml:space="preserve">Test case type </t>
   </si>
   <si>
@@ -447,25 +434,238 @@
     <t>Có nghiệm kép</t>
   </si>
   <si>
-    <t xml:space="preserve">a ≠ 0 và ( b² - 4ac) = 0 </t>
-  </si>
-  <si>
-    <t>a = b = 0 và c ≠ 0</t>
-  </si>
-  <si>
-    <t>a = 0 và b ≠ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a ≠ 0 và ( b² - 4ac) &gt; 0 </t>
-  </si>
-  <si>
     <t>Vô nghiệm</t>
+  </si>
+  <si>
+    <t>chiSoCu</t>
+  </si>
+  <si>
+    <t>chiSoCu &lt; 0</t>
+  </si>
+  <si>
+    <t>chiSoCu &gt; chiSoMoi</t>
+  </si>
+  <si>
+    <t>chiSoMoi &lt; 0</t>
+  </si>
+  <si>
+    <t>chiSoMoi</t>
+  </si>
+  <si>
+    <t>Bậc 1</t>
+  </si>
+  <si>
+    <t>Bậc 2</t>
+  </si>
+  <si>
+    <t>Bậc 3</t>
+  </si>
+  <si>
+    <t>Bậc 4</t>
+  </si>
+  <si>
+    <t>Bậc 5</t>
+  </si>
+  <si>
+    <t>Bậc 6</t>
+  </si>
+  <si>
+    <t>chiSoMoi - chiSoCu ∈ [0, 50]</t>
+  </si>
+  <si>
+    <t>chiSoMoi - chiSoCu ∈ [51, 100]</t>
+  </si>
+  <si>
+    <t>chiSoMoi - chiSoCu ∈ [101 - 200]</t>
+  </si>
+  <si>
+    <t>chiSoMoi - chiSoCu ∈ [201 - 300]</t>
+  </si>
+  <si>
+    <t>chiSoMoi - chiSoCu ∈ [301 - 400]</t>
+  </si>
+  <si>
+    <t>chiSoMoi - chiSoCu &gt;= 401</t>
+  </si>
+  <si>
+    <t>&gt;= 1582, là năm nhuận chia hết cho 400</t>
+  </si>
+  <si>
+    <t>&gt;= 1582, là năm nhuận chia hết cho 4 mà không chia hết cho 100</t>
+  </si>
+  <si>
+    <t>Chuỗi ký tự ∈ {0,1}</t>
+  </si>
+  <si>
+    <t>Chuỗi ký tự ∉ {0,1}</t>
+  </si>
+  <si>
+    <t>(a + b &gt; c &amp;&amp; b + c &gt;a &amp;&amp; c + a &gt; b) &amp;&amp; (a ≠ b ≠ c ≠ 0)</t>
+  </si>
+  <si>
+    <t>(a + b &gt; c &amp;&amp; b + c &gt;a &amp;&amp; c + a &gt; b)  &amp;&amp; (a = b ≠ c || b = c ≠ a || a = c ≠ b) &amp;&amp; (a,b,c ≠ 0)</t>
+  </si>
+  <si>
+    <t>(a + b &gt; c &amp;&amp; b + c &gt;a &amp;&amp; c + a &gt; b)  &amp;&amp; ( a = b = c &gt; 0 )</t>
+  </si>
+  <si>
+    <t>a,b,c</t>
+  </si>
+  <si>
+    <t>a = b = 0 &amp;&amp; c ≠ 0</t>
+  </si>
+  <si>
+    <t>a = 0 &amp;&amp; b ≠ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a ≠ 0 &amp;&amp; ( b² - 4ac) &gt; 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a ≠ 0 &amp;&amp; ( b² - 4ac) = 0 </t>
+  </si>
+  <si>
+    <t>chiSoCu, chiSoMoi</t>
+  </si>
+  <si>
+    <t>s0</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Cho s0, tính tổng từ 1 + 2 + 3 + … + k. Sao cho tổng &gt; s0</t>
+  </si>
+  <si>
+    <t>&gt; 0</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>n &gt; s.length - p</t>
+  </si>
+  <si>
+    <t>p &gt;= s.length</t>
+  </si>
+  <si>
+    <t>Trả về s</t>
+  </si>
+  <si>
+    <t>p &lt; 0</t>
+  </si>
+  <si>
+    <t>n &lt; 0</t>
+  </si>
+  <si>
+    <t>Trả về s từ vị trí 0 đến p -1</t>
+  </si>
+  <si>
+    <t>p, n</t>
+  </si>
+  <si>
+    <t>Trả về chuỗi mới xóa</t>
+  </si>
+  <si>
+    <t>p &lt; s.length &amp;&amp; n &lt;= s.length - p</t>
+  </si>
+  <si>
+    <t>DuongThaiBao</t>
+  </si>
+  <si>
+    <t>ThaiBao</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>Chuỗi rỗng</t>
+  </si>
+  <si>
+    <t>s1 rỗng, s2 rỗng, s3 rỗng</t>
+  </si>
+  <si>
+    <t>Trả về s1</t>
+  </si>
+  <si>
+    <t>s2 rỗng</t>
+  </si>
+  <si>
+    <t>Trả về s1 đã xóa nội dung của s2</t>
+  </si>
+  <si>
+    <t>s3 rỗng</t>
+  </si>
+  <si>
+    <t>s2 không có trong s1</t>
+  </si>
+  <si>
+    <t>Trả về chuỗi đã thay thế</t>
+  </si>
+  <si>
+    <t>s1 không rỗng, s2 có trong s1, s3 không rỗng</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>Hehe</t>
+  </si>
+  <si>
+    <t>Duong</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>DuongThai</t>
+  </si>
+  <si>
+    <t>LuuVan</t>
+  </si>
+  <si>
+    <t>LuuVanBao</t>
+  </si>
+  <si>
+    <t>a ⊂ N</t>
+  </si>
+  <si>
+    <t>a rỗng</t>
+  </si>
+  <si>
+    <t>a[ ]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,6,7,8]</t>
+  </si>
+  <si>
+    <t>[ ]</t>
+  </si>
+  <si>
+    <t>a là mảng đối xứng</t>
+  </si>
+  <si>
+    <t>a là không mảng đối xứng</t>
+  </si>
+  <si>
+    <t>&lt;= 0</t>
+  </si>
+  <si>
+    <t>[1, 1, 2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 2, 1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -690,11 +890,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -737,87 +946,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -830,31 +964,16 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,30 +981,149 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,11 +1133,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,7 +1194,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -973,6 +1229,254 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1238606</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="161925"/>
+          <a:ext cx="2553056" cy="857370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>944945</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>32858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373444</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>113315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2258738" y="584651"/>
+          <a:ext cx="3166240" cy="1735836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>728296</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243694</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728296" y="7327"/>
+          <a:ext cx="3068956" cy="2505745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="238125"/>
+          <a:ext cx="4124325" cy="1177308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="1466851"/>
+          <a:ext cx="3819525" cy="753512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2219326</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="285751"/>
+          <a:ext cx="2914650" cy="1995264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -993,7 +1497,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1042,7 +1546,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1586,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>486246</xdr:colOff>
+      <xdr:colOff>333846</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>135776</xdr:rowOff>
     </xdr:to>
@@ -1091,7 +1595,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5471E261-EBBF-4C68-BC93-F14C0A46477F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5471E261-EBBF-4C68-BC93-F14C0A46477F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1644,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F5AD3C-1964-4D9E-B833-8D89FCB1798A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F5AD3C-1964-4D9E-B833-8D89FCB1798A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1188,7 +1692,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EBD280-56B2-4F51-88A9-EDFA3E414581}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EBD280-56B2-4F51-88A9-EDFA3E414581}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1236,7 +1740,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D169A85-CFD8-4651-B4E4-E967DC051F94}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D169A85-CFD8-4651-B4E4-E967DC051F94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,6 +1757,92 @@
         <a:xfrm>
           <a:off x="83820" y="350520"/>
           <a:ext cx="6351226" cy="2042160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>422764</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>262968</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>369277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="422764" y="219075"/>
+          <a:ext cx="3386658" cy="2897798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1340129</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="257174"/>
+          <a:ext cx="4350029" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1526,240 +2116,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="131" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" style="1" customWidth="1"/>
-    <col min="10" max="12" width="9.109375" style="1"/>
-    <col min="13" max="14" width="9.109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="31.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="1"/>
+    <col min="13" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+    </row>
+    <row r="23" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
       <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="43"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="43"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="16" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+    <row r="38" spans="1:7" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="6" t="s">
         <v>5</v>
       </c>
@@ -1772,10 +2362,10 @@
       <c r="F38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="5">
@@ -1797,8 +2387,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="53"/>
       <c r="B40" s="5">
         <v>2</v>
       </c>
@@ -1818,8 +2408,8 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="53"/>
       <c r="B41" s="5">
         <v>3</v>
       </c>
@@ -1839,14 +2429,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="43" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -1862,8 +2452,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="43"/>
       <c r="B43" s="5">
         <v>2</v>
       </c>
@@ -1881,15 +2471,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="43"/>
       <c r="B44" s="5">
         <v>3</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="9">
@@ -1902,8 +2492,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="43"/>
       <c r="B45" s="5">
         <v>4</v>
       </c>
@@ -1921,8 +2511,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="43"/>
       <c r="B46" s="5">
         <v>5</v>
       </c>
@@ -1932,7 +2522,7 @@
       <c r="D46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="20">
         <v>5.9</v>
       </c>
       <c r="F46" s="9">
@@ -1942,8 +2532,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="43"/>
       <c r="B47" s="5">
         <v>6</v>
       </c>
@@ -1953,7 +2543,7 @@
       <c r="D47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="20">
         <v>24.1</v>
       </c>
       <c r="F47" s="9">
@@ -1963,8 +2553,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
+    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="43"/>
       <c r="B48" s="5">
         <v>7</v>
       </c>
@@ -1974,7 +2564,7 @@
       <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="45" t="s">
+      <c r="E48" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F48" s="9">
@@ -1984,8 +2574,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="43"/>
       <c r="B49" s="5">
         <v>8</v>
       </c>
@@ -2003,8 +2593,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
       <c r="B50" s="5">
         <v>9</v>
       </c>
@@ -2017,15 +2607,15 @@
       <c r="E50" s="9">
         <v>6</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="21">
         <v>-0.1</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="43"/>
       <c r="B51" s="5">
         <v>10</v>
       </c>
@@ -2038,15 +2628,15 @@
       <c r="E51" s="9">
         <v>6</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="21">
         <v>120.01</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
+    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="43"/>
       <c r="B52" s="5">
         <v>11</v>
       </c>
@@ -2059,15 +2649,15 @@
       <c r="E52" s="9">
         <v>6</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+    <row r="53" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="41"/>
       <c r="B53" s="5">
         <v>12</v>
       </c>
@@ -2085,37 +2675,38 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A53"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A23:A24"/>
@@ -2129,7 +2720,6 @@
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2137,285 +2727,997 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="E15" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="82"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="88"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="E18" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="34">
+        <v>12</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="2">
+        <v>12</v>
+      </c>
+      <c r="I19" s="34">
+        <v>5</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="73"/>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="34">
+        <v>0</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="34">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="71"/>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="34">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E21:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="E15" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="82"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J17" s="88"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="E18" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="73"/>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:J17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="E15" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="E18" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="34">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="E15" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="E18" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="73"/>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E18:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView topLeftCell="A50" zoomScale="145" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C38:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="14" customWidth="1"/>
     <col min="3" max="3" width="16" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="56.5546875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="13.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="56.5703125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
         <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="43"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="43"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="55" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="55"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="55"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="55"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="55"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+    </row>
+    <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="55" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="55"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+    </row>
+    <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-    </row>
-    <row r="41" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58"/>
+    </row>
+    <row r="41" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="55"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+    </row>
+    <row r="42" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="55"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+    </row>
+    <row r="43" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="55"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="55"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+    </row>
+    <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="16" t="s">
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="6" t="s">
         <v>55</v>
       </c>
@@ -2428,9 +3730,9 @@
       <c r="F48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>85</v>
       </c>
@@ -2453,14 +3755,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="41" t="s">
         <v>86</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="4">
@@ -2476,12 +3778,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="53"/>
       <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D51" s="4">
@@ -2497,12 +3799,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="53"/>
       <c r="B52" s="4">
         <v>3</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="4">
@@ -2518,12 +3820,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="53"/>
       <c r="B53" s="4">
         <v>4</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="22" t="s">
         <v>65</v>
       </c>
       <c r="D53" s="4">
@@ -2539,8 +3841,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="53"/>
       <c r="B54" s="4">
         <v>5</v>
       </c>
@@ -2558,15 +3860,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="53"/>
       <c r="B55" s="4">
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="50">
+      <c r="D55" s="22">
         <v>17</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -2579,15 +3881,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="53"/>
       <c r="B56" s="4">
         <v>7</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="50">
+      <c r="D56" s="22">
         <v>65</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -2600,15 +3902,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="53"/>
       <c r="B57" s="4">
         <v>8</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -2621,15 +3923,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="53"/>
       <c r="B58" s="4">
         <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="50">
+      <c r="D58" s="22">
         <v>21.2</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -2642,15 +3944,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="53"/>
       <c r="B59" s="4">
         <v>10</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="50"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="4" t="s">
         <v>57</v>
       </c>
@@ -2661,8 +3963,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+    <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="53"/>
       <c r="B60" s="4">
         <v>11</v>
       </c>
@@ -2672,7 +3974,7 @@
       <c r="D60" s="4">
         <v>21</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -2682,8 +3984,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="53"/>
       <c r="B61" s="4">
         <v>12</v>
       </c>
@@ -2701,8 +4003,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="53"/>
       <c r="B62" s="4">
         <v>13</v>
       </c>
@@ -2712,18 +4014,18 @@
       <c r="D62" s="4">
         <v>21</v>
       </c>
-      <c r="E62" s="51" t="s">
+      <c r="E62" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="50" t="s">
+      <c r="F62" s="22" t="s">
         <v>74</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="53"/>
       <c r="B63" s="4">
         <v>14</v>
       </c>
@@ -2733,18 +4035,18 @@
       <c r="D63" s="4">
         <v>21</v>
       </c>
-      <c r="E63" s="51" t="s">
+      <c r="E63" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F63" s="50" t="s">
+      <c r="F63" s="22" t="s">
         <v>76</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
+    <row r="64" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="53"/>
       <c r="B64" s="4">
         <v>15</v>
       </c>
@@ -2754,18 +4056,18 @@
       <c r="D64" s="4">
         <v>21</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="50" t="s">
+      <c r="F64" s="22" t="s">
         <v>78</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="53"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
         <v>56</v>
@@ -2773,18 +4075,18 @@
       <c r="D65" s="4">
         <v>21</v>
       </c>
-      <c r="E65" s="51" t="s">
+      <c r="E65" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F65" s="22" t="s">
         <v>96</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="42"/>
       <c r="B66" s="4">
         <v>16</v>
       </c>
@@ -2794,7 +4096,7 @@
       <c r="D66" s="4">
         <v>21</v>
       </c>
-      <c r="E66" s="51" t="s">
+      <c r="E66" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F66" s="4"/>
@@ -2802,184 +4104,184 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="14"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="14"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="14"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="14"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -3021,35 +4323,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="146" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="146" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -3060,8 +4362,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3071,8 +4373,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+    <row r="22" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
       <c r="B22" s="5" t="s">
         <v>99</v>
       </c>
@@ -3080,38 +4382,38 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="65" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="67" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="40"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="64"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="42"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="D26" s="68"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="55" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="2">
@@ -3124,8 +4426,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -3136,8 +4438,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
       <c r="B29" s="2">
         <v>3</v>
       </c>
@@ -3148,8 +4450,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
       <c r="B30" s="2">
         <v>4</v>
       </c>
@@ -3176,105 +4478,110 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F2257D-EBD8-4CB7-9591-436D403AF5C2}">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:H24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="27.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="19.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="E24" s="52" t="s">
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="E24" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="70" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="70"/>
+    </row>
+    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="55"/>
+      <c r="B27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="E27" s="71" t="s">
         <v>106</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="E27" s="63" t="s">
-        <v>107</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="H27" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="63"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
+      <c r="B28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="2">
         <v>2</v>
       </c>
@@ -3285,17 +4592,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="66" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E29" s="73"/>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2023</v>
+      </c>
+      <c r="H29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E30" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G30" s="2">
         <v>1581</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3305,9 +4624,9 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E27:E28"/>
     <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="E27:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3315,84 +4634,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ADA4F1-D3A2-4009-BF8E-9BF8F366F239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="31.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="21.109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="31.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="21.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="E16" s="52" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="E16" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="54"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="70"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E19" s="2" t="s">
         <v>85</v>
       </c>
@@ -3406,7 +4725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
         <v>86</v>
       </c>
@@ -3434,103 +4753,101 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433EF6FD-7DE7-43F9-A24A-2CFE28778A04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="22.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="22.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="E18" s="67" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="E18" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="54" t="s">
+      <c r="H19" s="82"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="25" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="H20" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="I20" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55" t="s">
+      <c r="J20" s="70"/>
+    </row>
+    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="54"/>
-    </row>
-    <row r="21" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="B21" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="E21" s="74" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="2">
@@ -3546,20 +4863,18 @@
         <v>6</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="61"/>
+        <v>156</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="2">
         <v>2</v>
       </c>
@@ -3573,16 +4888,18 @@
         <v>9</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="55" t="s">
+        <v>157</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="62"/>
+        <v>113</v>
+      </c>
+      <c r="E23" s="76"/>
       <c r="F23" s="2">
         <v>3</v>
       </c>
@@ -3596,119 +4913,134 @@
         <v>7</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="55"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="77" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="28">
         <v>3</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="28">
         <v>3</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="28">
         <v>6</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="55"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="63"/>
+        <v>120</v>
+      </c>
+      <c r="E25" s="77"/>
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="28">
         <v>5</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="28">
         <v>2</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="28">
         <v>2</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="63"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="55"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="77"/>
       <c r="F26" s="2">
         <v>3</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="28">
         <v>3</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="28">
         <v>6</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="28">
         <v>3</v>
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="63"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="55"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="77"/>
       <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="28">
         <v>0</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="29">
         <v>7</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="29">
         <v>7</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="63"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="77"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="29">
         <v>7</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="28">
         <v>0</v>
       </c>
-      <c r="I28" s="65">
+      <c r="I28" s="29">
         <v>7</v>
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="63"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="77"/>
       <c r="F29" s="2">
         <v>6</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="29">
         <v>7</v>
       </c>
-      <c r="H29" s="65">
+      <c r="H29" s="29">
         <v>7</v>
       </c>
-      <c r="I29" s="64">
+      <c r="I29" s="28">
         <v>0</v>
       </c>
       <c r="J29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="E24:E29"/>
     <mergeCell ref="E18:J18"/>
@@ -3717,6 +5049,7 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3724,102 +5057,102 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF66699-513C-4C62-8207-8193BB23DCB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="55.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="55.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="E17" s="67" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="E17" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="80"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="70" t="s">
+      <c r="E18" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="70" t="s">
+      <c r="H18" s="82"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="25" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="J19" s="71"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="74" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="2">
@@ -3835,18 +5168,18 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="E21" s="61"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="2">
         <v>2</v>
       </c>
@@ -3860,18 +5193,18 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="E22" s="61"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="2">
         <v>3</v>
       </c>
@@ -3885,18 +5218,18 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="E23" s="61"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="2">
         <v>4</v>
       </c>
@@ -3910,11 +5243,18 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E24" s="62"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="76"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -3928,10 +5268,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E25" s="2" t="s">
         <v>86</v>
       </c>
@@ -3948,18 +5288,481 @@
         <v>4</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E20:E24"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E20:E24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="E17" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="82"/>
+      <c r="I18" s="84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="85"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="E20" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1">
+        <f xml:space="preserve"> G20 + 25</f>
+        <v>50</v>
+      </c>
+      <c r="I20" s="34">
+        <f>(H20-G20)*1484*1.1</f>
+        <v>40810</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>25</v>
+      </c>
+      <c r="H21" s="2">
+        <f xml:space="preserve"> G21 + 50</f>
+        <v>75</v>
+      </c>
+      <c r="I21" s="34">
+        <f>(H21-G21)*1533*1.1</f>
+        <v>84315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2">
+        <f>G22 + 150</f>
+        <v>175</v>
+      </c>
+      <c r="I22" s="34">
+        <f>(H22-G22)*1786*1.1</f>
+        <v>294690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>25</v>
+      </c>
+      <c r="H23" s="2">
+        <f xml:space="preserve"> G23 + 250</f>
+        <v>275</v>
+      </c>
+      <c r="I23" s="34">
+        <f>(H23-G23)*2242*1.1</f>
+        <v>616550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>25</v>
+      </c>
+      <c r="H24" s="2">
+        <f xml:space="preserve"> G24 + 350</f>
+        <v>375</v>
+      </c>
+      <c r="I24" s="34">
+        <f>(H24-G24)*2503*1.1</f>
+        <v>963655.00000000012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="72"/>
+      <c r="F25" s="2">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2">
+        <v>25</v>
+      </c>
+      <c r="H25" s="2">
+        <f xml:space="preserve"> G25 + 500</f>
+        <v>525</v>
+      </c>
+      <c r="I25" s="34">
+        <f>(H25-G25)*2587</f>
+        <v>1293500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="77"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>50</v>
+      </c>
+      <c r="I26" s="34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="77"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="72"/>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-50</v>
+      </c>
+      <c r="I27" s="34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E28" s="73"/>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2">
+        <v>50</v>
+      </c>
+      <c r="H28" s="2">
+        <v>25</v>
+      </c>
+      <c r="I28" s="34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E31" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:I19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="E15" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="80"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="86"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="E18" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="72"/>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>25</v>
+      </c>
+      <c r="H19" s="2">
+        <v>28</v>
+      </c>
+      <c r="I19" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E22" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Module02/DuongThaiBao_Module02.xlsx
+++ b/Module02/DuongThaiBao_Module02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 01" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="244">
   <si>
     <t>Đề bài</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Giờ vào</t>
   </si>
   <si>
-    <t>6.00 - 19.00</t>
-  </si>
-  <si>
     <t>19.01-24.00</t>
   </si>
   <si>
@@ -660,6 +657,117 @@
   </si>
   <si>
     <t>[1, 2, 3, 2, 1]</t>
+  </si>
+  <si>
+    <t>Valid boundary</t>
+  </si>
+  <si>
+    <t>Invalid boundary</t>
+  </si>
+  <si>
+    <t>6 ký tự</t>
+  </si>
+  <si>
+    <t>12 ký tự</t>
+  </si>
+  <si>
+    <t>5 ký tự</t>
+  </si>
+  <si>
+    <t>13 ký tự</t>
+  </si>
+  <si>
+    <t>7 ký tự</t>
+  </si>
+  <si>
+    <t>a = 1</t>
+  </si>
+  <si>
+    <t>b = 1</t>
+  </si>
+  <si>
+    <t>c = 1</t>
+  </si>
+  <si>
+    <t>b = 0</t>
+  </si>
+  <si>
+    <t>chiSoCu = 0</t>
+  </si>
+  <si>
+    <t>chiSoMoi = 0</t>
+  </si>
+  <si>
+    <t>chiSoCu = -1</t>
+  </si>
+  <si>
+    <t>chiSoMoi = -1</t>
+  </si>
+  <si>
+    <t>For valid boundary</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>6.00-19.00</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.01</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>16.01</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.01</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>For invalid boundary</t>
+  </si>
+  <si>
+    <t>kennexkennex</t>
+  </si>
+  <si>
+    <t>kennexkennexx</t>
+  </si>
+  <si>
+    <t>A1B2C3A</t>
+  </si>
+  <si>
+    <t>A1B2C</t>
+  </si>
+  <si>
+    <t>p &gt;= 0, n &gt;= 0</t>
   </si>
 </sst>
 </file>
@@ -731,7 +839,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -899,11 +1007,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -938,9 +1055,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1007,69 +1121,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1157,6 +1277,41 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,7 +1349,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1497,7 +1652,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1701,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,8 +1740,8 @@
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333846</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>924396</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>135776</xdr:rowOff>
     </xdr:to>
@@ -1595,7 +1750,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5471E261-EBBF-4C68-BC93-F14C0A46477F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5471E261-EBBF-4C68-BC93-F14C0A46477F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1799,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F5AD3C-1964-4D9E-B833-8D89FCB1798A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66F5AD3C-1964-4D9E-B833-8D89FCB1798A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1847,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EBD280-56B2-4F51-88A9-EDFA3E414581}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42EBD280-56B2-4F51-88A9-EDFA3E414581}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1895,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D169A85-CFD8-4651-B4E4-E967DC051F94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D169A85-CFD8-4651-B4E4-E967DC051F94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="131" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:F24"/>
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2132,7 +2287,8 @@
     <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="14" width="9.140625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
@@ -2143,344 +2299,384 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-    </row>
-    <row r="23" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-    </row>
-    <row r="25" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="C25" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="53"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="41"/>
+      <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C28" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="39" t="s">
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="H28" s="2">
+        <v>24.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="41"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="39" t="s">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="41"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="39" t="s">
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="99"/>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" s="2">
+        <v>120.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="99"/>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="99"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="39" t="s">
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="99"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="99"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="45"/>
+    </row>
+    <row r="41" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="9">
+        <v>6</v>
+      </c>
+      <c r="F41" s="9">
         <v>15</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="45" t="s">
+      <c r="G41" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="52"/>
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="9">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="F42" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="G42" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="52"/>
+      <c r="B43" s="5">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="46"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="9">
+        <v>8</v>
+      </c>
+      <c r="F43" s="9">
+        <v>70</v>
+      </c>
+      <c r="G43" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B44" s="5">
         <v>1</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C44" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E39" s="9">
-        <v>6</v>
-      </c>
-      <c r="F39" s="9">
-        <v>15</v>
-      </c>
-      <c r="G39" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="5">
-        <v>2</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="9">
-        <v>19.010000000000002</v>
-      </c>
-      <c r="F40" s="9">
-        <v>21</v>
-      </c>
-      <c r="G40" s="9">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="5">
-        <v>3</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="9">
-        <v>8</v>
-      </c>
-      <c r="F41" s="9">
-        <v>70</v>
-      </c>
-      <c r="G41" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="9">
-        <v>6</v>
-      </c>
-      <c r="F42" s="9">
-        <v>15</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
-      <c r="B43" s="5">
-        <v>2</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="9">
-        <v>6</v>
-      </c>
-      <c r="F43" s="9">
-        <v>15</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="43"/>
-      <c r="B44" s="5">
-        <v>3</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="E44" s="9">
         <v>6</v>
@@ -2489,18 +2685,18 @@
         <v>15</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="43"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="41"/>
       <c r="B45" s="5">
-        <v>4</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E45" s="9">
         <v>6</v>
       </c>
@@ -2508,140 +2704,138 @@
         <v>15</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="43"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="41"/>
       <c r="B46" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="20">
-        <v>5.9</v>
+        <v>22</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="9">
+        <v>6</v>
       </c>
       <c r="F46" s="9">
         <v>15</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
+      <c r="G46" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="41"/>
       <c r="B47" s="5">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="9">
         <v>6</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="20">
-        <v>24.1</v>
       </c>
       <c r="F47" s="9">
         <v>15</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="43"/>
+      <c r="G47" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="41"/>
       <c r="B48" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>34</v>
+      <c r="E48" s="19">
+        <v>5.9</v>
       </c>
       <c r="F48" s="9">
         <v>15</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="41"/>
       <c r="B49" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="19">
+        <v>24.1</v>
+      </c>
       <c r="F49" s="9">
         <v>15</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="41"/>
       <c r="B50" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="9">
-        <v>6</v>
-      </c>
-      <c r="F50" s="21">
-        <v>-0.1</v>
+      <c r="E50" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="9">
+        <v>15</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="43"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="41"/>
       <c r="B51" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="9">
-        <v>6</v>
-      </c>
-      <c r="F51" s="21">
-        <v>120.01</v>
+      <c r="E51" s="5"/>
+      <c r="F51" s="9">
+        <v>15</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="41"/>
       <c r="B52" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>8</v>
@@ -2649,20 +2843,20 @@
       <c r="E52" s="9">
         <v>6</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>34</v>
+      <c r="F52" s="20">
+        <v>-0.01</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="41"/>
       <c r="B53" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>8</v>
@@ -2670,45 +2864,281 @@
       <c r="E53" s="9">
         <v>6</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="20">
+        <v>120.01</v>
+      </c>
       <c r="G53" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="41"/>
+      <c r="B54" s="5">
+        <v>11</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="9">
+        <v>6</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="42"/>
+      <c r="B55" s="5">
+        <v>12</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="9">
+        <v>6</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="9">
+        <v>6</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="5">
+        <v>2</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="9">
+        <v>19</v>
+      </c>
+      <c r="F57" s="9">
+        <v>16</v>
+      </c>
+      <c r="G57" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="5">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="9">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="F58" s="9">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G58" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="5">
+        <v>4</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="9">
+        <v>24</v>
+      </c>
+      <c r="F59" s="9">
+        <v>60</v>
+      </c>
+      <c r="G59" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="52"/>
+      <c r="B60" s="5">
+        <v>5</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="9">
+        <v>6</v>
+      </c>
+      <c r="F60" s="9">
+        <v>60.01</v>
+      </c>
+      <c r="G60" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="53"/>
+      <c r="B61" s="5">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="9">
+        <v>6</v>
+      </c>
+      <c r="F61" s="9">
+        <v>120</v>
+      </c>
+      <c r="G61" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="19">
+        <v>5.59</v>
+      </c>
+      <c r="F62" s="9">
+        <v>16</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="52"/>
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="27">
+        <v>24.01</v>
+      </c>
+      <c r="F63" s="9">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="52"/>
+      <c r="B64" s="5">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="9">
+        <v>6</v>
+      </c>
+      <c r="F64" s="27">
+        <v>-0.01</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="53"/>
+      <c r="B65" s="5">
+        <v>4</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="9">
+        <v>6</v>
+      </c>
+      <c r="F65" s="27">
+        <v>120.01</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A42:A53"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A41"/>
+  <mergeCells count="29">
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A62:A65"/>
     <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A30"/>
@@ -2720,6 +3150,21 @@
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A44:A55"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="A31:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2729,17 +3174,330 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
+    <col min="3" max="5" width="22.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="G15" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="89"/>
+    </row>
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="33">
+        <v>12</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="2">
+        <v>12</v>
+      </c>
+      <c r="K19" s="33">
+        <v>5</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="74"/>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="33">
+        <v>0</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="53"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="102">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G22" s="72"/>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="27">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="33">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G23" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="33">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G24" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="102">
+        <v>-1</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G25" s="59"/>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" s="27">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="33">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:L17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
@@ -2756,405 +3514,176 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="E15" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="E15" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="87" t="s">
-        <v>111</v>
+      <c r="E16" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="88" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>170</v>
+      <c r="A17" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="88"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>174</v>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" s="89"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="71" t="s">
-        <v>85</v>
+      <c r="E18" s="72" t="s">
+        <v>84</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="34">
-        <v>12</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="E19" s="72"/>
+      <c r="A19" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="2">
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="2">
-        <v>12</v>
-      </c>
-      <c r="I19" s="34">
-        <v>5</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38" t="s">
-        <v>172</v>
-      </c>
+      <c r="A20" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="37"/>
       <c r="E20" s="73"/>
       <c r="F20" s="2">
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="34">
-        <v>0</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="I21" s="34">
-        <v>-1</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="71"/>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I22" s="34">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="E21:E22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="E15" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J17" s="88"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="E18" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="38" t="s">
+    </row>
+    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="B21" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="C21" s="2"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="2">
         <v>4</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="73"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="J22" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="36"/>
+      <c r="E23" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3183,7 +3712,7 @@
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
@@ -3198,98 +3727,98 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="E15" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="E15" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="87" t="s">
-        <v>111</v>
+      <c r="E16" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="88" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="H17" s="88"/>
+      <c r="H17" s="89"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="E18" s="33" t="s">
-        <v>85</v>
+      <c r="A18" s="17"/>
+      <c r="E18" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H18" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="33" t="s">
-        <v>86</v>
+      <c r="E19" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H19" s="34">
+        <v>201</v>
+      </c>
+      <c r="H19" s="33">
         <v>2147483647</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="36"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="35"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E22" s="35"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E23" s="35"/>
+      <c r="E23" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3308,15 +3837,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
@@ -3331,98 +3860,98 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="E15" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="E15" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="87" t="s">
-        <v>111</v>
+      <c r="E16" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="88" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="89"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="53"/>
+      <c r="B18" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="H17" s="88"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="38" t="s">
-        <v>204</v>
-      </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="71" t="s">
-        <v>85</v>
+      <c r="E18" s="72" t="s">
+        <v>84</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H18" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="73"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="2">
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="34" t="b">
+        <v>205</v>
+      </c>
+      <c r="H19" s="33" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="36"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="35"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E22" s="35"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E23" s="35"/>
+      <c r="E23" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3443,20 +3972,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:F38"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="56.5703125" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="32.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="50.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -3464,385 +3994,448 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-    </row>
-    <row r="27" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="41"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="41"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="41"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-    </row>
-    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-    </row>
-    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="39" t="s">
+      <c r="B32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="5">
+        <v>18</v>
+      </c>
+      <c r="H32" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="59"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="5">
+        <v>64</v>
+      </c>
+      <c r="H33" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="59"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="59"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="59"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="59"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="59"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="59"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="59"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="59"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-    </row>
-    <row r="30" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="39" t="s">
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="32" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="39" t="s">
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+    </row>
+    <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-    </row>
-    <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="F48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-    </row>
-    <row r="39" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-    </row>
-    <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-    </row>
-    <row r="41" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-    </row>
-    <row r="42" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-    </row>
-    <row r="43" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-    </row>
-    <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="45" t="s">
+      <c r="G48" s="45"/>
+    </row>
+    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="46"/>
-    </row>
-    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="4">
         <v>21</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
-        <v>86</v>
+      <c r="A50" s="42" t="s">
+        <v>85</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>60</v>
+      <c r="C50" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="D50" s="4">
         <v>21</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G50" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>62</v>
+      <c r="C51" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="D51" s="4">
         <v>21</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G51" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="53"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="4">
         <v>3</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>63</v>
+      <c r="C52" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="D52" s="4">
         <v>21</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G52" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="53"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="4">
         <v>4</v>
       </c>
-      <c r="C53" s="22" t="s">
-        <v>65</v>
+      <c r="C53" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="D53" s="4">
         <v>21</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G53" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="53"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="4">
         <v>5</v>
       </c>
@@ -3851,441 +4444,607 @@
         <v>21</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G54" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="53"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="4">
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="21">
+        <v>17</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="22">
-        <v>17</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G55" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="4">
         <v>7</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="21">
+        <v>65</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="22">
-        <v>65</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G56" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="53"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="4">
         <v>8</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G57" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="53"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="4">
         <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="21">
+        <v>21.2</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="22">
-        <v>21.2</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G58" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="53"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="4">
         <v>10</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G59" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="53"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="4">
         <v>11</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="4">
         <v>21</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="53"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="4">
         <v>12</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="4">
         <v>21</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="53"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="4">
         <v>13</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="4">
         <v>21</v>
       </c>
-      <c r="E62" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="22" t="s">
+      <c r="E62" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="53"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="4">
         <v>14</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="4">
         <v>21</v>
       </c>
-      <c r="E63" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="22" t="s">
+      <c r="E63" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="64" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="53"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="4">
         <v>15</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="4">
         <v>21</v>
       </c>
-      <c r="E64" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="22" t="s">
+      <c r="E64" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="53"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="4">
         <v>21</v>
       </c>
-      <c r="E65" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="22" t="s">
+      <c r="E65" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="42"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="4">
         <v>16</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="4">
         <v>21</v>
       </c>
-      <c r="E66" s="23" t="s">
-        <v>57</v>
+      <c r="E66" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="4">
+        <v>18</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="4">
+        <v>2</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D68" s="4">
+        <v>64</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="4">
+        <v>18</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
+      <c r="A70" s="101"/>
+      <c r="B70" s="4">
+        <v>2</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="4">
+        <v>18</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
+      <c r="A71" s="101"/>
+      <c r="B71" s="4">
+        <v>3</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="21">
+        <v>17</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
+      <c r="A72" s="101"/>
+      <c r="B72" s="4">
+        <v>4</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72" s="21">
+        <v>65</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
+      <c r="A73" s="101"/>
+      <c r="B73" s="4">
+        <v>5</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="4">
+        <v>18</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="101"/>
+      <c r="B74" s="4">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D74" s="4">
+        <v>18</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="14"/>
+      <c r="A75" s="13"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
+      <c r="A76" s="13"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
+      <c r="A77" s="13"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
+      <c r="A78" s="13"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
+      <c r="A79" s="13"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
+      <c r="A80" s="13"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="13"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="14"/>
+      <c r="A82" s="13"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="14"/>
+      <c r="A83" s="13"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="14"/>
+      <c r="A84" s="13"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="14"/>
+      <c r="A85" s="13"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="14"/>
+      <c r="A86" s="13"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="14"/>
+      <c r="A87" s="13"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="14"/>
+      <c r="A88" s="13"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="14"/>
+      <c r="A89" s="13"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="14"/>
+      <c r="A90" s="13"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="14"/>
+      <c r="A91" s="13"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="14"/>
+      <c r="A92" s="13"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="14"/>
+      <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="14"/>
+      <c r="A94" s="13"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="14"/>
+      <c r="A95" s="13"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="14"/>
+      <c r="A96" s="13"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="14"/>
+      <c r="A97" s="13"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="14"/>
+      <c r="A98" s="13"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="14"/>
+      <c r="A99" s="13"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="14"/>
+      <c r="A100" s="13"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="14"/>
+      <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
+      <c r="A102" s="13"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="14"/>
+      <c r="A103" s="13"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
+      <c r="A104" s="13"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
+      <c r="A105" s="13"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
+      <c r="A106" s="13"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
+      <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="14"/>
+      <c r="A108" s="13"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="14"/>
+      <c r="A109" s="13"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="14"/>
+      <c r="A110" s="13"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="14"/>
+      <c r="A111" s="13"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="14"/>
+      <c r="A112" s="13"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="14"/>
+      <c r="A113" s="13"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="14"/>
+      <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="14"/>
+      <c r="A115" s="13"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="14"/>
+      <c r="A116" s="13"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="14"/>
+      <c r="A117" s="13"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="14"/>
+      <c r="A118" s="13"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="14"/>
+      <c r="A119" s="13"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="14"/>
+      <c r="A120" s="13"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="14"/>
+      <c r="A121" s="13"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="14"/>
+      <c r="A122" s="13"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="14"/>
+      <c r="A123" s="13"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="14"/>
+      <c r="A124" s="13"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="14"/>
+      <c r="A125" s="13"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="14"/>
+      <c r="A126" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
     <mergeCell ref="A50:A66"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C40:F40"/>
@@ -4300,22 +5059,6 @@
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4324,10 +5067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="146" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="A25:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4336,7 +5079,8 @@
     <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -4344,14 +5088,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -4361,60 +5107,78 @@
       <c r="C20" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="D20" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="41"/>
+      <c r="B22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="D22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
-      <c r="B26" s="66"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="65"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="68"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="D26" s="69"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="72" t="s">
+        <v>84</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -4426,8 +5190,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="74"/>
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -4438,39 +5202,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="72" t="s">
+        <v>85</v>
+      </c>
       <c r="B29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2">
         <v>-1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="74"/>
       <c r="B30" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2">
         <v>1001</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="74"/>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="74"/>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A19:C19"/>
+  <mergeCells count="10">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4479,23 +5300,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -4503,130 +5324,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="E24" s="69" t="s">
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="G24" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="H25" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1582</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1581</v>
+      </c>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="71"/>
+    </row>
+    <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="2">
         <v>2</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="I28" s="2">
+        <v>2023</v>
+      </c>
+      <c r="J28" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G29" s="74"/>
+      <c r="H29" s="2">
         <v>3</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="70"/>
-    </row>
-    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="E27" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="I29" s="2">
+        <v>2023</v>
+      </c>
+      <c r="J29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G30" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="2">
-        <v>2000</v>
-      </c>
-      <c r="H27" s="2" t="b">
+      <c r="I30" s="2">
+        <v>1581</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G31" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2">
-        <v>2023</v>
-      </c>
-      <c r="H28" s="2" t="b">
+      <c r="I31" s="2">
+        <v>1582</v>
+      </c>
+      <c r="J31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E29" s="73"/>
-      <c r="F29" s="2">
-        <v>3</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2023</v>
-      </c>
-      <c r="H29" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E30" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G32" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="2">
+      <c r="I32" s="2">
         <v>1581</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>100</v>
+      <c r="J32" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="G24:J24"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4635,117 +5502,127 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="31.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="21.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="21.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="E16" s="69" t="s">
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="G16" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="70" t="s">
+      <c r="H17" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="70" t="s">
+      <c r="J17" s="71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="B18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="70"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="2" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1001</v>
+      </c>
+      <c r="J19" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="2">
+      <c r="H20" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="2">
-        <v>1001</v>
-      </c>
-      <c r="H19" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>100</v>
+      <c r="I20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4754,10 +5631,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="B16" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4765,12 +5642,13 @@
     <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="69.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="22.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -4778,278 +5656,316 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="E18" s="78" t="s">
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="G18" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="80"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="H19" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="71"/>
+    </row>
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2">
+        <v>6</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="2">
         <v>2</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="82"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="26" t="s">
+      <c r="I22" s="1">
+        <v>15</v>
+      </c>
+      <c r="J22" s="2">
+        <v>15</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J20" s="70"/>
-    </row>
-    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="E21" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>10</v>
-      </c>
-      <c r="H21" s="2">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2">
-        <v>6</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="59" t="s">
         <v>156</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2">
-        <v>15</v>
-      </c>
-      <c r="I22" s="2">
-        <v>9</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
-        <v>157</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="2">
+        <v>112</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="2">
         <v>3</v>
-      </c>
-      <c r="G23" s="2">
-        <v>7</v>
-      </c>
-      <c r="H23" s="2">
-        <v>7</v>
       </c>
       <c r="I23" s="2">
         <v>7</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
+      <c r="J23" s="2">
+        <v>7</v>
+      </c>
+      <c r="K23" s="2">
+        <v>7</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="2">
+        <v>117</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="28">
+      <c r="I24" s="27">
         <v>3</v>
       </c>
-      <c r="H24" s="28">
+      <c r="J24" s="27">
         <v>3</v>
       </c>
-      <c r="I24" s="28">
+      <c r="K24" s="27">
         <v>6</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="2">
+        <v>119</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="28">
+      <c r="I25" s="27">
         <v>5</v>
       </c>
-      <c r="H25" s="28">
+      <c r="J25" s="27">
         <v>2</v>
       </c>
-      <c r="I25" s="28">
+      <c r="K25" s="27">
         <v>2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="2">
+        <v>120</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="G26" s="28">
+      <c r="I26" s="27">
         <v>3</v>
       </c>
-      <c r="H26" s="28">
+      <c r="J26" s="27">
         <v>6</v>
       </c>
-      <c r="I26" s="28">
+      <c r="K26" s="27">
         <v>3</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="2">
+        <v>121</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" s="78"/>
+      <c r="H27" s="2">
         <v>4</v>
       </c>
-      <c r="G27" s="28">
+      <c r="I27" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="29">
+      <c r="J27" s="28">
         <v>7</v>
       </c>
-      <c r="I27" s="29">
+      <c r="K27" s="28">
         <v>7</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="2">
+        <v>122</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="78"/>
+      <c r="H28" s="2">
         <v>5</v>
       </c>
-      <c r="G28" s="29">
+      <c r="I28" s="28">
         <v>7</v>
       </c>
-      <c r="H28" s="28">
+      <c r="J28" s="27">
         <v>0</v>
       </c>
-      <c r="I28" s="29">
+      <c r="K28" s="28">
         <v>7</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E29" s="77"/>
-      <c r="F29" s="2">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G29" s="78"/>
+      <c r="H29" s="2">
         <v>6</v>
       </c>
-      <c r="G29" s="29">
+      <c r="I29" s="28">
         <v>7</v>
       </c>
-      <c r="H29" s="29">
+      <c r="J29" s="28">
         <v>7</v>
       </c>
-      <c r="I29" s="28">
+      <c r="K29" s="27">
         <v>0</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5060,8 +5976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5084,76 +6000,76 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="E17" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="E17" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84" t="s">
-        <v>111</v>
+      <c r="E18" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C19" s="2"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="25" t="s">
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="I19" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="J19" s="85"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="E20" s="74" t="s">
-        <v>85</v>
+      <c r="E20" s="75" t="s">
+        <v>84</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -5168,18 +6084,18 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="E21" s="75"/>
+      <c r="E21" s="76"/>
       <c r="F21" s="2">
         <v>2</v>
       </c>
@@ -5193,18 +6109,18 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="E22" s="75"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="2">
         <v>3</v>
       </c>
@@ -5218,18 +6134,18 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="E23" s="75"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="2">
         <v>4</v>
       </c>
@@ -5243,18 +6159,18 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="76"/>
+        <v>126</v>
+      </c>
+      <c r="E24" s="77"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -5268,12 +6184,12 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -5288,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5308,23 +6224,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="D18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="5" width="22.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -5333,285 +6249,379 @@
       </c>
     </row>
     <row r="16" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="E17" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="G17" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="80"/>
       <c r="I17" s="80"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="J17" s="80"/>
+      <c r="K17" s="81"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="D18" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="83"/>
+      <c r="K18" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="86"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="85"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>25</v>
+      </c>
+      <c r="J20" s="1">
+        <f xml:space="preserve"> I20 + 25</f>
+        <v>50</v>
+      </c>
+      <c r="K20" s="33">
+        <f>(J20-I20)*1484*1.1</f>
+        <v>40810</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="E20" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
         <v>25</v>
       </c>
-      <c r="H20" s="1">
-        <f xml:space="preserve"> G20 + 25</f>
-        <v>50</v>
-      </c>
-      <c r="I20" s="34">
-        <f>(H20-G20)*1484*1.1</f>
-        <v>40810</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="J21" s="2">
+        <f xml:space="preserve"> I21 + 50</f>
+        <v>75</v>
+      </c>
+      <c r="K21" s="33">
+        <f>(J21-I21)*1533*1.1</f>
+        <v>84315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2">
         <v>25</v>
       </c>
-      <c r="H21" s="2">
-        <f xml:space="preserve"> G21 + 50</f>
-        <v>75</v>
-      </c>
-      <c r="I21" s="34">
-        <f>(H21-G21)*1533*1.1</f>
-        <v>84315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="J22" s="2">
+        <f>I22 + 150</f>
+        <v>175</v>
+      </c>
+      <c r="K22" s="33">
+        <f>(J22-I22)*1786*1.1</f>
+        <v>294690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
         <v>25</v>
       </c>
-      <c r="H22" s="2">
-        <f>G22 + 150</f>
-        <v>175</v>
-      </c>
-      <c r="I22" s="34">
-        <f>(H22-G22)*1786*1.1</f>
-        <v>294690</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="J23" s="2">
+        <f xml:space="preserve"> I23 + 250</f>
+        <v>275</v>
+      </c>
+      <c r="K23" s="33">
+        <f>(J23-I23)*2242*1.1</f>
+        <v>616550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="2">
-        <v>4</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
         <v>25</v>
       </c>
-      <c r="H23" s="2">
-        <f xml:space="preserve"> G23 + 250</f>
-        <v>275</v>
-      </c>
-      <c r="I23" s="34">
-        <f>(H23-G23)*2242*1.1</f>
-        <v>616550</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="2">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>25</v>
-      </c>
-      <c r="H24" s="2">
-        <f xml:space="preserve"> G24 + 350</f>
+      <c r="J24" s="2">
+        <f xml:space="preserve"> I24 + 350</f>
         <v>375</v>
       </c>
-      <c r="I24" s="34">
-        <f>(H24-G24)*2503*1.1</f>
+      <c r="K24" s="33">
+        <f>(J24-I24)*2503*1.1</f>
         <v>963655.00000000012</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="77" t="s">
-        <v>162</v>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="78" t="s">
+        <v>161</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="2">
+        <v>133</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="73"/>
+      <c r="H25" s="2">
         <v>6</v>
       </c>
-      <c r="G25" s="2">
+      <c r="I25" s="2">
         <v>25</v>
       </c>
-      <c r="H25" s="2">
-        <f xml:space="preserve"> G25 + 500</f>
+      <c r="J25" s="2">
+        <f xml:space="preserve"> I25 + 500</f>
         <v>525</v>
       </c>
-      <c r="I25" s="34">
-        <f>(H25-G25)*2587</f>
+      <c r="K25" s="33">
+        <f>(J25-I25)*2587</f>
         <v>1293500</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="78"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="2">
+        <v>135</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="G26" s="2">
+      <c r="I26" s="2">
         <v>-2</v>
       </c>
-      <c r="H26" s="2">
+      <c r="J26" s="2">
         <v>50</v>
       </c>
-      <c r="I26" s="34">
+      <c r="K26" s="33">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="78"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="2">
+        <v>134</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="2">
         <v>2</v>
       </c>
-      <c r="G27" s="2">
+      <c r="I27" s="2">
         <v>25</v>
       </c>
-      <c r="H27" s="2">
+      <c r="J27" s="2">
         <v>-50</v>
       </c>
-      <c r="I27" s="34">
+      <c r="K27" s="33">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E28" s="73"/>
-      <c r="F28" s="2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G28" s="74"/>
+      <c r="H28" s="2">
         <v>3</v>
       </c>
-      <c r="G28" s="2">
+      <c r="I28" s="2">
         <v>50</v>
       </c>
-      <c r="H28" s="2">
+      <c r="J28" s="2">
         <v>25</v>
       </c>
-      <c r="I28" s="34">
+      <c r="K28" s="33">
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E30" s="35"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E31" s="35"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G29" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <f xml:space="preserve"> I29 + 25</f>
+        <v>25</v>
+      </c>
+      <c r="K29" s="33">
+        <f>(J29-I29)*1484*1.1</f>
+        <v>40810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G30" s="74"/>
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="33">
+        <f>(J30-I30)*1484*1.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G31" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>50</v>
+      </c>
+      <c r="K31" s="33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G32" s="74"/>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>25</v>
+      </c>
+      <c r="J32" s="27">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="33">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E20:E25"/>
+  <mergeCells count="11">
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G20:G25"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5623,15 +6633,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="1"/>
     <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
@@ -5647,75 +6657,75 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="E15" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="87"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="E15" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="86"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="71" t="s">
-        <v>85</v>
+      <c r="E18" s="72" t="s">
+        <v>84</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -5726,12 +6736,12 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E19" s="72"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="2">
         <v>2</v>
       </c>
@@ -5741,18 +6751,18 @@
       <c r="H19" s="2">
         <v>28</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E20" s="36"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E21" s="35"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E22" s="35"/>
+      <c r="E22" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Module02/DuongThaiBao_Module02.xlsx
+++ b/Module02/DuongThaiBao_Module02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 01" sheetId="1" r:id="rId1"/>
@@ -1130,6 +1130,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1166,12 +1183,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1187,17 +1210,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1217,20 +1252,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1277,41 +1312,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2300,16 +2300,16 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -2318,12 +2318,12 @@
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="38" t="s">
         <v>207</v>
       </c>
@@ -2332,79 +2332,79 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="96" t="s">
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="43" t="s">
         <v>225</v>
       </c>
       <c r="H27" s="5">
@@ -2412,17 +2412,17 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="97" t="s">
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="44" t="s">
         <v>226</v>
       </c>
       <c r="H28" s="2">
@@ -2430,47 +2430,47 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="97" t="s">
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="44" t="s">
         <v>227</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="97" t="s">
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="44" t="s">
         <v>228</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="60" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="97" t="s">
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="44" t="s">
         <v>229</v>
       </c>
       <c r="H31" s="2">
@@ -2478,17 +2478,17 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="99"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="97" t="s">
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="44" t="s">
         <v>234</v>
       </c>
       <c r="H32" s="2">
@@ -2496,55 +2496,55 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="97" t="s">
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="44" t="s">
         <v>230</v>
       </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="99"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="97" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="44" t="s">
         <v>231</v>
       </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="99"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="97" t="s">
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="44" t="s">
         <v>232</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="99"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="97" t="s">
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="44" t="s">
         <v>233</v>
       </c>
       <c r="H36" s="2"/>
@@ -2556,36 +2556,36 @@
       <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="44" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2598,10 +2598,10 @@
       <c r="F40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="45"/>
+      <c r="G40" s="52"/>
     </row>
     <row r="41" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="49" t="s">
         <v>84</v>
       </c>
       <c r="B41" s="5">
@@ -2624,7 +2624,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="5">
         <v>2</v>
       </c>
@@ -2645,7 +2645,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="5">
         <v>3</v>
       </c>
@@ -2666,7 +2666,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="48" t="s">
         <v>85</v>
       </c>
       <c r="B44" s="5">
@@ -2689,7 +2689,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="5">
         <v>2</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="5">
         <v>3</v>
       </c>
@@ -2729,7 +2729,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="5">
         <v>4</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="5">
         <v>5</v>
       </c>
@@ -2769,7 +2769,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="5">
         <v>6</v>
       </c>
@@ -2790,7 +2790,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="5">
         <v>7</v>
       </c>
@@ -2811,7 +2811,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="5">
         <v>8</v>
       </c>
@@ -2830,7 +2830,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="5">
         <v>9</v>
       </c>
@@ -2851,7 +2851,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="5">
         <v>10</v>
       </c>
@@ -2872,7 +2872,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="5">
         <v>11</v>
       </c>
@@ -2893,7 +2893,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="42"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="5">
         <v>12</v>
       </c>
@@ -2912,7 +2912,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="49" t="s">
         <v>222</v>
       </c>
       <c r="B56" s="5">
@@ -2935,7 +2935,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="5">
         <v>2</v>
       </c>
@@ -2956,7 +2956,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="5">
         <v>3</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="5">
         <v>4</v>
       </c>
@@ -2998,7 +2998,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="5">
         <v>5</v>
       </c>
@@ -3019,7 +3019,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="53"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="5">
         <v>6</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="49" t="s">
         <v>238</v>
       </c>
       <c r="B62" s="5">
@@ -3063,7 +3063,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="5">
         <v>2</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="5">
         <v>3</v>
       </c>
@@ -3105,7 +3105,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="53"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="5">
         <v>4</v>
       </c>
@@ -3132,11 +3132,10 @@
       <c r="A67" s="17"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="93"/>
+      <c r="A68" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A56:A61"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="A23:A24"/>
@@ -3145,11 +3144,11 @@
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A56:A61"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A44:A55"/>
     <mergeCell ref="C34:F34"/>
@@ -3165,6 +3164,7 @@
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="A31:A36"/>
+    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3201,21 +3201,21 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="G15" s="70" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="G15" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -3233,18 +3233,18 @@
       <c r="E16" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="H16" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="82" t="s">
+      <c r="I16" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="88" t="s">
+      <c r="J16" s="96"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="101" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3258,8 +3258,8 @@
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="24" t="s">
         <v>163</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="K17" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="L17" s="89"/>
+      <c r="L17" s="102"/>
     </row>
     <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
@@ -3281,7 +3281,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="75" t="s">
         <v>84</v>
       </c>
       <c r="H18" s="2">
@@ -3310,7 +3310,7 @@
       <c r="C19" s="37"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="G19" s="73"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="2">
         <v>2</v>
       </c>
@@ -3328,7 +3328,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="49" t="s">
         <v>174</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -3343,7 +3343,7 @@
       <c r="E20" s="5">
         <v>-1</v>
       </c>
-      <c r="G20" s="74"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="2">
         <v>3</v>
       </c>
@@ -3361,7 +3361,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>172</v>
@@ -3372,7 +3372,7 @@
       <c r="E21" s="5">
         <v>-1</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="68" t="s">
         <v>85</v>
       </c>
       <c r="H21" s="2">
@@ -3384,7 +3384,7 @@
       <c r="J21" s="2">
         <v>5</v>
       </c>
-      <c r="K21" s="102">
+      <c r="K21" s="45">
         <v>-1</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -3392,7 +3392,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G22" s="72"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="2">
         <v>2</v>
       </c>
@@ -3430,7 +3430,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="68" t="s">
         <v>238</v>
       </c>
       <c r="H24" s="2">
@@ -3442,7 +3442,7 @@
       <c r="J24" s="2">
         <v>5</v>
       </c>
-      <c r="K24" s="102">
+      <c r="K24" s="45">
         <v>-1</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -3450,7 +3450,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G25" s="59"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="2">
         <v>2</v>
       </c>
@@ -3469,8 +3469,6 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G18:G20"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="A15:E15"/>
@@ -3479,6 +3477,8 @@
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G18:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3514,19 +3514,19 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="E15" s="70" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="E15" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -3538,18 +3538,18 @@
       <c r="C16" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="88" t="s">
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="101" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3561,8 +3561,8 @@
         <v>181</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="24" t="s">
         <v>179</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="I17" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="J17" s="89"/>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
@@ -3582,7 +3582,7 @@
         <v>183</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="75" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2">
@@ -3601,7 +3601,7 @@
         <v>185</v>
       </c>
       <c r="C19" s="37"/>
-      <c r="E19" s="73"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="2">
         <v>2</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>186</v>
       </c>
       <c r="C20" s="37"/>
-      <c r="E20" s="73"/>
+      <c r="E20" s="85"/>
       <c r="F20" s="2">
         <v>3</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>188</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="E21" s="73"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="2">
         <v>4</v>
       </c>
@@ -3665,7 +3665,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="74"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -3727,17 +3727,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="E15" s="70" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="E15" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -3749,16 +3749,16 @@
       <c r="C16" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="98" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="88" t="s">
+      <c r="H16" s="101" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3772,12 +3772,12 @@
       <c r="C17" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="89"/>
+      <c r="H17" s="102"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
@@ -3860,17 +3860,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="E15" s="70" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="E15" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -3882,41 +3882,41 @@
       <c r="C16" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="98" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="88" t="s">
+      <c r="H16" s="101" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="49" t="s">
         <v>199</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>202</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="89"/>
+      <c r="H17" s="102"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="37" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="75" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2">
@@ -3930,7 +3930,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="74"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="2">
         <v>2</v>
       </c>
@@ -3995,16 +3995,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -4013,12 +4013,12 @@
       <c r="B26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="38" t="s">
         <v>207</v>
       </c>
@@ -4027,18 +4027,18 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="5" t="s">
         <v>209</v>
       </c>
@@ -4047,14 +4047,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="5" t="s">
         <v>210</v>
       </c>
@@ -4063,54 +4063,54 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="68" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="5">
         <v>18</v>
       </c>
@@ -4119,14 +4119,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="5">
         <v>64</v>
       </c>
@@ -4135,82 +4135,82 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="68" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="68" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="5" t="s">
         <v>209</v>
       </c>
@@ -4219,98 +4219,98 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="44" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="6" t="s">
         <v>54</v>
       </c>
@@ -4323,7 +4323,7 @@
       <c r="F48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="45"/>
+      <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
@@ -4349,7 +4349,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="49" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="4">
@@ -4372,7 +4372,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="4">
         <v>2</v>
       </c>
@@ -4393,7 +4393,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="4">
         <v>3</v>
       </c>
@@ -4413,8 +4413,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="59"/>
       <c r="B53" s="4">
         <v>4</v>
       </c>
@@ -4435,7 +4435,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="4">
         <v>5</v>
       </c>
@@ -4454,7 +4454,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="4">
         <v>6</v>
       </c>
@@ -4475,7 +4475,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="4">
         <v>7</v>
       </c>
@@ -4496,7 +4496,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="4">
         <v>8</v>
       </c>
@@ -4517,7 +4517,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="4">
         <v>9</v>
       </c>
@@ -4537,8 +4537,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
+    <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="59"/>
       <c r="B59" s="4">
         <v>10</v>
       </c>
@@ -4557,7 +4557,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="4">
         <v>11</v>
       </c>
@@ -4578,7 +4578,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="4">
         <v>12</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="4">
         <v>13</v>
       </c>
@@ -4618,7 +4618,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="4">
         <v>14</v>
       </c>
@@ -4639,7 +4639,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="4">
         <v>15</v>
       </c>
@@ -4659,8 +4659,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
+    <row r="65" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="59"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
         <v>55</v>
@@ -4679,7 +4679,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="53"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="4">
         <v>16</v>
       </c>
@@ -4698,7 +4698,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="48" t="s">
         <v>222</v>
       </c>
       <c r="B67" s="4">
@@ -4721,7 +4721,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="4">
         <v>2</v>
       </c>
@@ -4742,7 +4742,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="100" t="s">
+      <c r="A69" s="72" t="s">
         <v>222</v>
       </c>
       <c r="B69" s="4">
@@ -4765,7 +4765,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="101"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="4">
         <v>2</v>
       </c>
@@ -4786,7 +4786,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="101"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="4">
         <v>3</v>
       </c>
@@ -4807,7 +4807,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="101"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="4">
         <v>4</v>
       </c>
@@ -4828,7 +4828,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="101"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="4">
         <v>5</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="101"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="4">
         <v>6</v>
       </c>
@@ -5069,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D34" sqref="A25:D34"/>
+    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5089,13 +5089,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -5115,7 +5115,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="48" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5132,7 +5132,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="5" t="s">
         <v>98</v>
       </c>
@@ -5147,37 +5147,37 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="79" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="81" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="69"/>
+      <c r="D26" s="82"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="75" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="2">
@@ -5191,7 +5191,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="74"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -5203,7 +5203,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="75" t="s">
         <v>85</v>
       </c>
       <c r="B29" s="2">
@@ -5217,7 +5217,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="2">
         <v>2</v>
       </c>
@@ -5229,7 +5229,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="75" t="s">
         <v>222</v>
       </c>
       <c r="B31" s="2">
@@ -5239,11 +5239,11 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="2">
         <v>2</v>
       </c>
@@ -5255,7 +5255,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="75" t="s">
         <v>238</v>
       </c>
       <c r="B33" s="2">
@@ -5269,7 +5269,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="74"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="2">
         <v>2</v>
       </c>
@@ -5282,7 +5282,6 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:A26"/>
@@ -5292,6 +5291,7 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5303,7 +5303,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5325,19 +5325,19 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="G24" s="70" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="G24" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
     </row>
     <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -5355,21 +5355,21 @@
       <c r="E25" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="83" t="s">
         <v>102</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="83" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="68" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -5384,22 +5384,22 @@
       <c r="E26" s="5">
         <v>1581</v>
       </c>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
       <c r="I26" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="71"/>
+      <c r="J26" s="83"/>
     </row>
     <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="75" t="s">
         <v>105</v>
       </c>
       <c r="H27" s="2">
@@ -5413,26 +5413,26 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="G28" s="73"/>
+      <c r="G28" s="85"/>
       <c r="H28" s="2">
         <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>2023</v>
+        <v>2004</v>
       </c>
       <c r="J28" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G29" s="74"/>
+      <c r="G29" s="76"/>
       <c r="H29" s="2">
         <v>3</v>
       </c>
@@ -5526,19 +5526,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="G16" s="70" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="G16" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
@@ -5556,16 +5556,16 @@
       <c r="E17" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="83" t="s">
         <v>102</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="71" t="s">
+      <c r="J17" s="83" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5581,12 +5581,12 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="J18" s="71"/>
+      <c r="J18" s="83"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G19" s="2" t="s">
@@ -5657,21 +5657,21 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="G18" s="79" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="G18" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="81"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="94"/>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
@@ -5689,18 +5689,18 @@
       <c r="E19" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="71" t="s">
+      <c r="G19" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="82" t="s">
+      <c r="I19" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="71" t="s">
+      <c r="J19" s="96"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="83" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5714,8 +5714,8 @@
       <c r="C20" s="2"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
       <c r="I20" s="24" t="s">
         <v>113</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="K20" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="71"/>
+      <c r="L20" s="83"/>
     </row>
     <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -5737,7 +5737,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="75" t="s">
+      <c r="G21" s="88" t="s">
         <v>84</v>
       </c>
       <c r="H21" s="2">
@@ -5766,7 +5766,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="76"/>
+      <c r="G22" s="89"/>
       <c r="H22" s="2">
         <v>2</v>
       </c>
@@ -5784,7 +5784,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="68" t="s">
         <v>156</v>
       </c>
       <c r="B23" s="2"/>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="77"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="2">
         <v>3</v>
       </c>
@@ -5811,14 +5811,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="G24" s="78" t="s">
+      <c r="G24" s="91" t="s">
         <v>85</v>
       </c>
       <c r="H24" s="2">
@@ -5836,14 +5836,14 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="G25" s="78"/>
+      <c r="G25" s="91"/>
       <c r="H25" s="2">
         <v>2</v>
       </c>
@@ -5859,7 +5859,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>120</v>
@@ -5870,7 +5870,7 @@
       <c r="E26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="78"/>
+      <c r="G26" s="91"/>
       <c r="H26" s="2">
         <v>3</v>
       </c>
@@ -5886,7 +5886,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>121</v>
@@ -5897,7 +5897,7 @@
       <c r="E27" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G27" s="78"/>
+      <c r="G27" s="91"/>
       <c r="H27" s="2">
         <v>4</v>
       </c>
@@ -5913,7 +5913,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>122</v>
@@ -5924,7 +5924,7 @@
       <c r="E28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="78"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="2">
         <v>5</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G29" s="78"/>
+      <c r="G29" s="91"/>
       <c r="H29" s="2">
         <v>6</v>
       </c>
@@ -5957,6 +5957,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="G24:G29"/>
     <mergeCell ref="G18:L18"/>
@@ -5964,8 +5966,6 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="L19:L20"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6000,19 +6000,19 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="E17" s="79" t="s">
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="E17" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -6024,18 +6024,18 @@
       <c r="C18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="F18" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="82" t="s">
+      <c r="G18" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85" t="s">
+      <c r="H18" s="96"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6047,8 +6047,8 @@
         <v>125</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="24" t="s">
         <v>113</v>
       </c>
@@ -6058,7 +6058,7 @@
       <c r="I19" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="86"/>
+      <c r="J19" s="99"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -6068,7 +6068,7 @@
         <v>157</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="88" t="s">
         <v>84</v>
       </c>
       <c r="F20" s="2">
@@ -6095,7 +6095,7 @@
         <v>158</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="E21" s="76"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="2">
         <v>2</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>159</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="E22" s="76"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="2">
         <v>3</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>160</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="E23" s="76"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="2">
         <v>4</v>
       </c>
@@ -6170,7 +6170,7 @@
       <c r="C24" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="77"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -6226,8 +6226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="D18:E19"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6243,27 +6243,81 @@
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="13">
+        <v>1484</v>
+      </c>
+      <c r="E9" s="13">
+        <f>50*D9</f>
+        <v>74200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="13">
+        <v>1533</v>
+      </c>
+      <c r="E10" s="13">
+        <f>50*D10</f>
+        <v>76650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="13">
+        <v>1786</v>
+      </c>
+      <c r="E11" s="13">
+        <f>100*D11</f>
+        <v>178600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="13">
+        <v>2242</v>
+      </c>
+      <c r="E12" s="13">
+        <f>100*D12</f>
+        <v>224200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="13">
+        <v>2503</v>
+      </c>
+      <c r="E13" s="13">
+        <f>100*D13</f>
+        <v>250300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="13">
+        <v>2587</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" ref="E10:E14" si="0">50*D14</f>
+        <v>129350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="G17" s="79" t="s">
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="G17" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -6281,17 +6335,17 @@
       <c r="E18" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="G18" s="85" t="s">
+      <c r="G18" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="85" t="s">
+      <c r="H18" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="82" t="s">
+      <c r="I18" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="83"/>
-      <c r="K18" s="85" t="s">
+      <c r="J18" s="96"/>
+      <c r="K18" s="98" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6305,15 +6359,15 @@
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="24" t="s">
         <v>132</v>
       </c>
       <c r="J19" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="86"/>
+      <c r="K19" s="99"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
@@ -6325,7 +6379,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="75" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="2">
@@ -6353,7 +6407,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="73"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="2">
         <v>2</v>
       </c>
@@ -6361,12 +6415,12 @@
         <v>25</v>
       </c>
       <c r="J21" s="2">
-        <f xml:space="preserve"> I21 + 50</f>
-        <v>75</v>
+        <f xml:space="preserve"> I21 + 51</f>
+        <v>76</v>
       </c>
       <c r="K21" s="33">
-        <f>(J21-I21)*1533*1.1</f>
-        <v>84315</v>
+        <f>(E9+(J21-I21-50)*1533)*1.1</f>
+        <v>83306.3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -6379,7 +6433,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="73"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="2">
         <v>3</v>
       </c>
@@ -6387,12 +6441,12 @@
         <v>25</v>
       </c>
       <c r="J22" s="2">
-        <f>I22 + 150</f>
-        <v>175</v>
+        <f>I22 + 151</f>
+        <v>176</v>
       </c>
       <c r="K22" s="33">
-        <f>(J22-I22)*1786*1.1</f>
-        <v>294690</v>
+        <f>(SUM(E9:E10)+(J22-I22-100)*1786)*1.1</f>
+        <v>266129.60000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -6405,7 +6459,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="73"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="2">
         <v>4</v>
       </c>
@@ -6413,12 +6467,12 @@
         <v>25</v>
       </c>
       <c r="J23" s="2">
-        <f xml:space="preserve"> I23 + 250</f>
-        <v>275</v>
+        <f xml:space="preserve"> I23 + 251</f>
+        <v>276</v>
       </c>
       <c r="K23" s="33">
-        <f>(J23-I23)*2242*1.1</f>
-        <v>616550</v>
+        <f>(SUM(E9:E11)+((J23-I23-200)*2242)*1.1)</f>
+        <v>455226.2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -6431,7 +6485,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="G24" s="73"/>
+      <c r="G24" s="85"/>
       <c r="H24" s="2">
         <v>5</v>
       </c>
@@ -6439,16 +6493,16 @@
         <v>25</v>
       </c>
       <c r="J24" s="2">
-        <f xml:space="preserve"> I24 + 350</f>
-        <v>375</v>
+        <f xml:space="preserve"> I24 + 351</f>
+        <v>376</v>
       </c>
       <c r="K24" s="33">
-        <f>(J24-I24)*2503*1.1</f>
-        <v>963655.00000000012</v>
+        <f>(SUM(E9:E12)+(J24-I24-300)*2503)*1.1</f>
+        <v>749433.3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="91" t="s">
         <v>161</v>
       </c>
       <c r="B25" s="2"/>
@@ -6461,7 +6515,7 @@
       <c r="E25" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="73"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="2">
         <v>6</v>
       </c>
@@ -6473,12 +6527,12 @@
         <v>525</v>
       </c>
       <c r="K25" s="33">
-        <f>(J25-I25)*2587</f>
-        <v>1293500</v>
+        <f>(SUM(E9:E13)+(J25-I25-400)*2587)*1.1</f>
+        <v>1168915</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4" t="s">
         <v>135</v>
@@ -6489,7 +6543,7 @@
       <c r="E26" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G26" s="72" t="s">
+      <c r="G26" s="75" t="s">
         <v>84</v>
       </c>
       <c r="H26" s="2">
@@ -6506,14 +6560,14 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="G27" s="73"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="2">
         <v>2</v>
       </c>
@@ -6528,7 +6582,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G28" s="74"/>
+      <c r="G28" s="76"/>
       <c r="H28" s="2">
         <v>3</v>
       </c>
@@ -6543,7 +6597,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="75" t="s">
         <v>222</v>
       </c>
       <c r="H29" s="2">
@@ -6562,7 +6616,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G30" s="74"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="2">
         <v>2</v>
       </c>
@@ -6578,7 +6632,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G31" s="72" t="s">
+      <c r="G31" s="75" t="s">
         <v>238</v>
       </c>
       <c r="H31" s="2">
@@ -6595,7 +6649,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G32" s="74"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="2">
         <v>2</v>
       </c>
@@ -6661,18 +6715,18 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="E15" s="79" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="E15" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -6684,30 +6738,30 @@
       <c r="C16" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="98" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="87"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="68" t="s">
         <v>162</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="24" t="s">
         <v>162</v>
       </c>
@@ -6719,12 +6773,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="75" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2">
@@ -6741,7 +6795,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E19" s="73"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="2">
         <v>2</v>
       </c>

--- a/Module02/DuongThaiBao_Module02.xlsx
+++ b/Module02/DuongThaiBao_Module02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 01" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="252">
   <si>
     <t>Đề bài</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Test case no.</t>
   </si>
   <si>
-    <t>Expented result</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -768,6 +765,33 @@
   </si>
   <si>
     <t>p &gt;= 0, n &gt;= 0</t>
+  </si>
+  <si>
+    <t>n là kích thước mảng a</t>
+  </si>
+  <si>
+    <t>n.length &lt; a</t>
+  </si>
+  <si>
+    <t>n.length &gt; a</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Assert.IsNotNull failed. </t>
+  </si>
+  <si>
+    <t>Actual result</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1101,9 +1125,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1141,21 +1162,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1180,9 +1207,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1192,8 +1216,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1207,27 +1249,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,6 +1331,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1349,7 +1385,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1688,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1737,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1786,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5471E261-EBBF-4C68-BC93-F14C0A46477F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5471E261-EBBF-4C68-BC93-F14C0A46477F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1835,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66F5AD3C-1964-4D9E-B833-8D89FCB1798A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F5AD3C-1964-4D9E-B833-8D89FCB1798A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1883,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42EBD280-56B2-4F51-88A9-EDFA3E414581}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EBD280-56B2-4F51-88A9-EDFA3E414581}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1931,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D169A85-CFD8-4651-B4E4-E967DC051F94}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D169A85-CFD8-4651-B4E4-E967DC051F94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,6 +1991,44 @@
         <a:xfrm>
           <a:off x="422764" y="219075"/>
           <a:ext cx="3386658" cy="2897798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1010478</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>842500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>588251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9649239" y="1987826"/>
+          <a:ext cx="4105848" cy="1333686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2300,16 +2374,16 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -2324,136 +2398,136 @@
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
       <c r="F22" s="62"/>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="H22" s="38" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="23" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="42" t="s">
         <v>224</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="43" t="s">
-        <v>225</v>
       </c>
       <c r="H27" s="5">
         <v>5.59</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="44" t="s">
-        <v>226</v>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="43" t="s">
+        <v>225</v>
       </c>
       <c r="H28" s="2">
         <v>24.01</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="44" t="s">
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="43" t="s">
         <v>227</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="44" t="s">
-        <v>228</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -2464,14 +2538,14 @@
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="44" t="s">
-        <v>229</v>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="43" t="s">
+        <v>228</v>
       </c>
       <c r="H31" s="2">
         <v>-0.01</v>
@@ -2482,14 +2556,14 @@
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="44" t="s">
-        <v>234</v>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="43" t="s">
+        <v>233</v>
       </c>
       <c r="H32" s="2">
         <v>120.01</v>
@@ -2500,52 +2574,52 @@
       <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="44" t="s">
-        <v>230</v>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="43" t="s">
+        <v>229</v>
       </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="44" t="s">
-        <v>231</v>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="43" t="s">
+        <v>230</v>
       </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="44" t="s">
-        <v>232</v>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="43" t="s">
+        <v>231</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="61"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="44" t="s">
-        <v>233</v>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="43" t="s">
+        <v>232</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -2556,36 +2630,36 @@
       <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="56"/>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="51" t="s">
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="52" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2598,10 +2672,10 @@
       <c r="F40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="52"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="45" t="s">
         <v>84</v>
       </c>
       <c r="B41" s="5">
@@ -2624,7 +2698,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="5">
         <v>2</v>
       </c>
@@ -2645,7 +2719,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="5">
         <v>3</v>
       </c>
@@ -2666,7 +2740,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="49" t="s">
         <v>85</v>
       </c>
       <c r="B44" s="5">
@@ -2689,7 +2763,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="5">
         <v>2</v>
       </c>
@@ -2708,7 +2782,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="5">
         <v>3</v>
       </c>
@@ -2729,7 +2803,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="48"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="5">
         <v>4</v>
       </c>
@@ -2748,7 +2822,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="5">
         <v>5</v>
       </c>
@@ -2769,7 +2843,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="5">
         <v>6</v>
       </c>
@@ -2790,7 +2864,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="5">
         <v>7</v>
       </c>
@@ -2811,7 +2885,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="5">
         <v>8</v>
       </c>
@@ -2830,7 +2904,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="48"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="5">
         <v>9</v>
       </c>
@@ -2851,7 +2925,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="5">
         <v>10</v>
       </c>
@@ -2872,7 +2946,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="5">
         <v>11</v>
       </c>
@@ -2893,7 +2967,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="49"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="5">
         <v>12</v>
       </c>
@@ -2912,8 +2986,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="49" t="s">
-        <v>222</v>
+      <c r="A56" s="45" t="s">
+        <v>221</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -2935,7 +3009,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="5">
         <v>2</v>
       </c>
@@ -2956,7 +3030,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="5">
         <v>3</v>
       </c>
@@ -2977,7 +3051,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="59"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="5">
         <v>4</v>
       </c>
@@ -2998,7 +3072,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="59"/>
+      <c r="A60" s="46"/>
       <c r="B60" s="5">
         <v>5</v>
       </c>
@@ -3019,7 +3093,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="5">
         <v>6</v>
       </c>
@@ -3040,14 +3114,14 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="49" t="s">
-        <v>238</v>
+      <c r="A62" s="45" t="s">
+        <v>237</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>8</v>
@@ -3063,12 +3137,12 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="59"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="5">
         <v>2</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>8</v>
@@ -3084,12 +3158,12 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="59"/>
+      <c r="A64" s="46"/>
       <c r="B64" s="5">
         <v>3</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>8</v>
@@ -3105,12 +3179,12 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="5">
         <v>4</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>8</v>
@@ -3132,23 +3206,10 @@
       <c r="A67" s="17"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="42"/>
+      <c r="A68" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="A56:A61"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A44:A55"/>
     <mergeCell ref="C34:F34"/>
@@ -3165,6 +3226,19 @@
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A56:A61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3176,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3201,21 +3275,21 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="G15" s="84" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="G15" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -3224,118 +3298,118 @@
       <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="98" t="s">
+      <c r="G16" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="95" t="s">
+      <c r="I16" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="96"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="101" t="s">
-        <v>110</v>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="100" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="37" t="s">
         <v>169</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
       <c r="I17" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="L17" s="102"/>
+        <v>166</v>
+      </c>
+      <c r="L17" s="101"/>
     </row>
     <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="G18" s="75" t="s">
+      <c r="G18" s="74" t="s">
         <v>84</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J18" s="2">
         <v>5</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="32">
         <v>12</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="G19" s="85"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="2">
         <v>2</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J19" s="2">
         <v>12</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="32">
         <v>5</v>
       </c>
-      <c r="L19" s="33" t="s">
-        <v>177</v>
+      <c r="L19" s="32" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>171</v>
+      <c r="A20" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>170</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -3343,28 +3417,28 @@
       <c r="E20" s="5">
         <v>-1</v>
       </c>
-      <c r="G20" s="76"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="2">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J20" s="2">
         <v>5</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="32">
         <v>0</v>
       </c>
-      <c r="L20" s="33" t="s">
-        <v>178</v>
+      <c r="L20" s="32" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
@@ -3372,103 +3446,105 @@
       <c r="E21" s="5">
         <v>-1</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="69" t="s">
         <v>85</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J21" s="2">
         <v>5</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="44">
         <v>-1</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G22" s="75"/>
+      <c r="G22" s="74"/>
       <c r="H22" s="2">
         <v>2</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J22" s="27">
         <v>-1</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="32">
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G23" s="39" t="s">
-        <v>222</v>
+      <c r="G23" s="38" t="s">
+        <v>221</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="32">
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G24" s="68" t="s">
-        <v>238</v>
+      <c r="G24" s="69" t="s">
+        <v>237</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J24" s="2">
         <v>5</v>
       </c>
-      <c r="K24" s="45">
+      <c r="K24" s="44">
         <v>-1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G25" s="68"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="2">
         <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J25" s="27">
         <v>-1</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="32">
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G18:G20"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="A15:E15"/>
@@ -3477,8 +3553,6 @@
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G18:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3489,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3514,19 +3588,19 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="E15" s="84" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="E15" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -3535,54 +3609,54 @@
       <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="98" t="s">
+      <c r="E16" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="95" t="s">
+      <c r="G16" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="101" t="s">
-        <v>110</v>
+      <c r="H16" s="95"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="100" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>181</v>
-      </c>
       <c r="C17" s="4"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H17" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="I17" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="J17" s="102"/>
+      <c r="J17" s="101"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="74" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2">
@@ -3590,100 +3664,100 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="E19" s="85"/>
+      <c r="C19" s="36"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="2">
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>177</v>
+      <c r="I19" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="E20" s="85"/>
+        <v>181</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="2">
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32" t="s">
         <v>177</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="C21" s="2"/>
-      <c r="E21" s="85"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="2">
         <v>4</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>192</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="76"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I22" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="J22" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="35"/>
+      <c r="E23" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3704,8 +3778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3727,17 +3801,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="E15" s="84" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="E15" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -3746,79 +3820,79 @@
       <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="98" t="s">
+      <c r="E16" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="97" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="101" t="s">
-        <v>110</v>
+      <c r="H16" s="100" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="102"/>
+      <c r="H17" s="101"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="31" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H18" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="31" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="33">
+        <v>200</v>
+      </c>
+      <c r="H19" s="32">
         <v>2147483647</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="35"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="34"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E22" s="34"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E23" s="34"/>
+      <c r="E23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3835,10 +3909,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3850,118 +3924,173 @@
     <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="E15" s="84" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="E15" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="98" t="s">
+      <c r="E16" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="37" t="s">
+      <c r="H16" s="104"/>
+      <c r="I16" s="100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="101"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="102"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="37" t="s">
-        <v>203</v>
-      </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="74" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="2" t="b">
+        <v>205</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="76"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="75"/>
       <c r="F19" s="2">
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H19" s="33" t="b">
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E23" s="34"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E21" s="75"/>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="2">
+        <v>6</v>
+      </c>
+      <c r="I21" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E23" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3995,16 +4124,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="65"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -4013,104 +4142,104 @@
       <c r="B26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="38" t="s">
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="H26" s="38" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="27" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
       <c r="G27" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="5">
         <v>18</v>
       </c>
@@ -4119,14 +4248,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
       <c r="G33" s="5">
         <v>64</v>
       </c>
@@ -4135,182 +4264,182 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="66"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="69" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="69" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
       <c r="G39" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="72"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="66"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="51" t="s">
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="52" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="6" t="s">
         <v>54</v>
       </c>
@@ -4323,7 +4452,7 @@
       <c r="F48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="52"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
@@ -4349,7 +4478,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="45" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="4">
@@ -4372,7 +4501,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="59"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="4">
         <v>2</v>
       </c>
@@ -4393,7 +4522,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="59"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="4">
         <v>3</v>
       </c>
@@ -4414,7 +4543,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="59"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="4">
         <v>4</v>
       </c>
@@ -4435,7 +4564,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="59"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="4">
         <v>5</v>
       </c>
@@ -4454,7 +4583,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="59"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="4">
         <v>6</v>
       </c>
@@ -4475,7 +4604,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="59"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="4">
         <v>7</v>
       </c>
@@ -4496,7 +4625,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="4">
         <v>8</v>
       </c>
@@ -4517,7 +4646,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="4">
         <v>9</v>
       </c>
@@ -4538,7 +4667,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="59"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="4">
         <v>10</v>
       </c>
@@ -4557,7 +4686,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="59"/>
+      <c r="A60" s="46"/>
       <c r="B60" s="4">
         <v>11</v>
       </c>
@@ -4578,7 +4707,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="59"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="4">
         <v>12</v>
       </c>
@@ -4597,7 +4726,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="59"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="4">
         <v>13</v>
       </c>
@@ -4618,7 +4747,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="59"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="4">
         <v>14</v>
       </c>
@@ -4639,7 +4768,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="59"/>
+      <c r="A64" s="46"/>
       <c r="B64" s="4">
         <v>15</v>
       </c>
@@ -4660,7 +4789,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="59"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
         <v>55</v>
@@ -4679,7 +4808,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="63"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="4">
         <v>16</v>
       </c>
@@ -4698,8 +4827,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="48" t="s">
-        <v>222</v>
+      <c r="A67" s="49" t="s">
+        <v>221</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -4721,12 +4850,12 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="48"/>
+      <c r="A68" s="49"/>
       <c r="B68" s="4">
         <v>2</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D68" s="4">
         <v>64</v>
@@ -4742,8 +4871,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="72" t="s">
-        <v>222</v>
+      <c r="A69" s="66" t="s">
+        <v>221</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -4765,12 +4894,12 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="73"/>
+      <c r="A70" s="67"/>
       <c r="B70" s="4">
         <v>2</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D70" s="4">
         <v>18</v>
@@ -4786,7 +4915,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="73"/>
+      <c r="A71" s="67"/>
       <c r="B71" s="4">
         <v>3</v>
       </c>
@@ -4807,12 +4936,12 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="73"/>
+      <c r="A72" s="67"/>
       <c r="B72" s="4">
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D72" s="21">
         <v>65</v>
@@ -4828,7 +4957,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="73"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="4">
         <v>5</v>
       </c>
@@ -4842,19 +4971,19 @@
         <v>56</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="73"/>
+      <c r="A74" s="67"/>
       <c r="B74" s="4">
         <v>6</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D74" s="4">
         <v>18</v>
@@ -4863,7 +4992,7 @@
         <v>56</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>74</v>
@@ -5027,6 +5156,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="A50:A66"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="C42:F42"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A74"/>
@@ -5043,22 +5188,6 @@
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A50:A66"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="C42:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5067,10 +5196,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="C25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5088,16 +5217,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -5107,15 +5236,15 @@
       <c r="C20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5131,8 +5260,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+    <row r="22" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
       <c r="B22" s="5" t="s">
         <v>98</v>
       </c>
@@ -5146,38 +5275,49 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67" t="s">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="78" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="80" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="80"/>
+      <c r="E25" s="80" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="77"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="82"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="75" t="s">
+      <c r="D26" s="81"/>
+      <c r="E26" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="74" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="2">
@@ -5189,9 +5329,15 @@
       <c r="D27" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="76"/>
+      <c r="E27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="75"/>
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -5201,9 +5347,15 @@
       <c r="D28" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="75" t="s">
+      <c r="E28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="74" t="s">
         <v>85</v>
       </c>
       <c r="B29" s="2">
@@ -5215,9 +5367,15 @@
       <c r="D29" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="76"/>
+      <c r="E29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="75"/>
       <c r="B30" s="2">
         <v>2</v>
       </c>
@@ -5227,10 +5385,16 @@
       <c r="D30" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="75" t="s">
-        <v>222</v>
+      <c r="E30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="74" t="s">
+        <v>221</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -5241,9 +5405,15 @@
       <c r="D31" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="76"/>
+      <c r="E31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="75"/>
       <c r="B32" s="2">
         <v>2</v>
       </c>
@@ -5253,10 +5423,16 @@
       <c r="D32" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="75" t="s">
-        <v>238</v>
+      <c r="E32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="74" t="s">
+        <v>237</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -5267,9 +5443,15 @@
       <c r="D33" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
+      <c r="E33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="75"/>
       <c r="B34" s="2">
         <v>2</v>
       </c>
@@ -5279,19 +5461,27 @@
       <c r="D34" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="E34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
+  <mergeCells count="12">
+    <mergeCell ref="F25:F26"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5300,10 +5490,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5315,8 +5505,8 @@
     <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="10" max="11" width="19.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -5324,22 +5514,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="86" t="s">
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="G24" s="84" t="s">
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="G24" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>2</v>
       </c>
@@ -5349,34 +5541,40 @@
       <c r="C25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="83" t="s">
+      <c r="H25" s="82" t="s">
         <v>102</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="83" t="s">
+      <c r="J25" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" s="82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="69" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
-        <v>104</v>
-      </c>
       <c r="B26" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="5">
         <v>1582</v>
@@ -5384,23 +5582,25 @@
       <c r="E26" s="5">
         <v>1581</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" s="83"/>
-    </row>
-    <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
+        <v>103</v>
+      </c>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+    </row>
+    <row r="27" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="69"/>
       <c r="B27" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="G27" s="75" t="s">
-        <v>105</v>
+      <c r="G27" s="74" t="s">
+        <v>104</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
@@ -5411,16 +5611,22 @@
       <c r="J27" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
+      <c r="K27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="69"/>
       <c r="B28" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="G28" s="85"/>
+      <c r="G28" s="84"/>
       <c r="H28" s="2">
         <v>2</v>
       </c>
@@ -5430,9 +5636,15 @@
       <c r="J28" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G29" s="76"/>
+      <c r="K28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G29" s="75"/>
       <c r="H29" s="2">
         <v>3</v>
       </c>
@@ -5442,8 +5654,14 @@
       <c r="J29" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G30" s="29" t="s">
         <v>85</v>
       </c>
@@ -5456,10 +5674,16 @@
       <c r="J30" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G31" s="40" t="s">
-        <v>222</v>
+      <c r="K30" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G31" s="39" t="s">
+        <v>221</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -5470,10 +5694,16 @@
       <c r="J31" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G32" s="40" t="s">
-        <v>238</v>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G32" s="39" t="s">
+        <v>237</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -5484,13 +5714,21 @@
       <c r="J32" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="K32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="G24:L24"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="J25:J26"/>
-    <mergeCell ref="G24:J24"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="A24:E24"/>
@@ -5502,10 +5740,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5520,27 +5758,29 @@
     <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="G16" s="84" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="G16" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>2</v>
       </c>
@@ -5550,45 +5790,53 @@
       <c r="C17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="83" t="s">
+      <c r="G17" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="82" t="s">
         <v>102</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="B18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="83"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G19" s="2" t="s">
         <v>84</v>
       </c>
@@ -5601,8 +5849,14 @@
       <c r="J19" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="2">
+        <v>10</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G20" s="2" t="s">
         <v>85</v>
       </c>
@@ -5615,10 +5869,18 @@
       <c r="J20" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="K20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G16:J16"/>
+  <mergeCells count="7">
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="G16:L16"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="J17:J18"/>
@@ -5631,10 +5893,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="D16" zoomScale="116" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5648,7 +5910,8 @@
     <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="8.85546875" style="1"/>
     <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="22.140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -5656,24 +5919,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="G18" s="92" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="G18" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>2</v>
       </c>
@@ -5683,61 +5948,69 @@
       <c r="C19" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="83" t="s">
+      <c r="H19" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="95" t="s">
+      <c r="I19" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="96"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="83" t="s">
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="N19" s="82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
       <c r="I20" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="K20" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+    </row>
+    <row r="21" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="83"/>
-    </row>
-    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="88" t="s">
+      <c r="G21" s="87" t="s">
         <v>84</v>
       </c>
       <c r="H21" s="2">
@@ -5753,20 +6026,26 @@
         <v>6</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="89"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="2">
         <v>2</v>
       </c>
@@ -5780,20 +6059,26 @@
         <v>9</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="68" t="s">
-        <v>156</v>
+        <v>115</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="69" t="s">
+        <v>155</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="90"/>
+      <c r="G23" s="89"/>
       <c r="H23" s="2">
         <v>3</v>
       </c>
@@ -5807,18 +6092,24 @@
         <v>7</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
+        <v>117</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="69"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="G24" s="91" t="s">
+      <c r="G24" s="90" t="s">
         <v>85</v>
       </c>
       <c r="H24" s="2">
@@ -5834,16 +6125,22 @@
         <v>6</v>
       </c>
       <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
+      <c r="M24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="69"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="G25" s="91"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="2">
         <v>2</v>
       </c>
@@ -5857,20 +6154,24 @@
         <v>2</v>
       </c>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="68"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="69"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="91"/>
+        <v>119</v>
+      </c>
+      <c r="G26" s="90"/>
       <c r="H26" s="2">
         <v>3</v>
       </c>
@@ -5884,20 +6185,24 @@
         <v>3</v>
       </c>
       <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="69"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G27" s="91"/>
+        <v>216</v>
+      </c>
+      <c r="G27" s="90"/>
       <c r="H27" s="2">
         <v>4</v>
       </c>
@@ -5911,20 +6216,26 @@
         <v>7</v>
       </c>
       <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
+      <c r="M27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="69"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="91"/>
+        <v>121</v>
+      </c>
+      <c r="G28" s="90"/>
       <c r="H28" s="2">
         <v>5</v>
       </c>
@@ -5938,9 +6249,15 @@
         <v>7</v>
       </c>
       <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G29" s="91"/>
+      <c r="M28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G29" s="90"/>
       <c r="H29" s="2">
         <v>6</v>
       </c>
@@ -5954,14 +6271,20 @@
         <v>0</v>
       </c>
       <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="G18:N18"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="G24:G29"/>
-    <mergeCell ref="G18:L18"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:K19"/>
@@ -5974,10 +6297,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5990,8 +6313,9 @@
     <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
     <col min="8" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="55.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="23.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -5999,22 +6323,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="E17" s="92" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="E17" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>2</v>
       </c>
@@ -6024,51 +6350,59 @@
       <c r="C18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="95"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="96"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C19" s="2"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I19" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="99"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="E20" s="88" t="s">
+      <c r="E20" s="87" t="s">
         <v>84</v>
       </c>
       <c r="F20" s="2">
@@ -6084,18 +6418,24 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="E21" s="89"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="2">
         <v>2</v>
       </c>
@@ -6109,18 +6449,24 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="E22" s="89"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="2">
         <v>3</v>
       </c>
@@ -6134,18 +6480,24 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="E23" s="89"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="2">
         <v>4</v>
       </c>
@@ -6159,18 +6511,24 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="90"/>
+        <v>125</v>
+      </c>
+      <c r="E24" s="89"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -6184,10 +6542,16 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E25" s="2" t="s">
         <v>85</v>
       </c>
@@ -6204,14 +6568,22 @@
         <v>4</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="E17:L17"/>
     <mergeCell ref="E20:E24"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:J17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:I18"/>
@@ -6226,8 +6598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6243,81 +6615,27 @@
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="13">
-        <v>1484</v>
-      </c>
-      <c r="E9" s="13">
-        <f>50*D9</f>
-        <v>74200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="13">
-        <v>1533</v>
-      </c>
-      <c r="E10" s="13">
-        <f>50*D10</f>
-        <v>76650</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="13">
-        <v>1786</v>
-      </c>
-      <c r="E11" s="13">
-        <f>100*D11</f>
-        <v>178600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="13">
-        <v>2242</v>
-      </c>
-      <c r="E12" s="13">
-        <f>100*D12</f>
-        <v>224200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="13">
-        <v>2503</v>
-      </c>
-      <c r="E13" s="13">
-        <f>100*D13</f>
-        <v>250300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="13">
-        <v>2587</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" ref="E10:E14" si="0">50*D14</f>
-        <v>129350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="G17" s="92" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="G17" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -6326,60 +6644,60 @@
       <c r="B18" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="98" t="s">
+      <c r="G18" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="95" t="s">
+      <c r="I18" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="96"/>
-      <c r="K18" s="98" t="s">
-        <v>110</v>
+      <c r="J18" s="95"/>
+      <c r="K18" s="97" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
       <c r="I19" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="99"/>
+        <v>135</v>
+      </c>
+      <c r="K19" s="98"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="74" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="2">
@@ -6392,22 +6710,21 @@
         <f xml:space="preserve"> I20 + 25</f>
         <v>50</v>
       </c>
-      <c r="K20" s="33">
-        <f>(J20-I20)*1484*1.1</f>
-        <v>40810</v>
+      <c r="K20" s="32">
+        <v>37100</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="85"/>
+      <c r="G21" s="84"/>
       <c r="H21" s="2">
         <v>2</v>
       </c>
@@ -6418,22 +6735,21 @@
         <f xml:space="preserve"> I21 + 51</f>
         <v>76</v>
       </c>
-      <c r="K21" s="33">
-        <f>(E9+(J21-I21-50)*1533)*1.1</f>
-        <v>83306.3</v>
+      <c r="K21" s="32">
+        <v>75733</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="85"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="2">
         <v>3</v>
       </c>
@@ -6444,22 +6760,21 @@
         <f>I22 + 151</f>
         <v>176</v>
       </c>
-      <c r="K22" s="33">
-        <f>(SUM(E9:E10)+(J22-I22-100)*1786)*1.1</f>
-        <v>266129.60000000003</v>
+      <c r="K22" s="32">
+        <v>241936</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="85"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="2">
         <v>4</v>
       </c>
@@ -6470,22 +6785,21 @@
         <f xml:space="preserve"> I23 + 251</f>
         <v>276</v>
       </c>
-      <c r="K23" s="33">
-        <f>(SUM(E9:E11)+((J23-I23-200)*2242)*1.1)</f>
-        <v>455226.2</v>
+      <c r="K23" s="32">
+        <v>443792</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="G24" s="85"/>
+      <c r="G24" s="84"/>
       <c r="H24" s="2">
         <v>5</v>
       </c>
@@ -6496,26 +6810,23 @@
         <f xml:space="preserve"> I24 + 351</f>
         <v>376</v>
       </c>
-      <c r="K24" s="33">
-        <f>(SUM(E9:E12)+(J24-I24-300)*2503)*1.1</f>
-        <v>749433.3</v>
-      </c>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="91" t="s">
-        <v>161</v>
+      <c r="A25" s="90" t="s">
+        <v>160</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" s="85"/>
+        <v>217</v>
+      </c>
+      <c r="G25" s="84"/>
       <c r="H25" s="2">
         <v>6</v>
       </c>
@@ -6526,24 +6837,21 @@
         <f xml:space="preserve"> I25 + 500</f>
         <v>525</v>
       </c>
-      <c r="K25" s="33">
-        <f>(SUM(E9:E13)+(J25-I25-400)*2587)*1.1</f>
-        <v>1168915</v>
-      </c>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="91"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G26" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="74" t="s">
         <v>84</v>
       </c>
       <c r="H26" s="2">
@@ -6555,19 +6863,19 @@
       <c r="J26" s="2">
         <v>50</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="91"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="G27" s="85"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="2">
         <v>2</v>
       </c>
@@ -6577,12 +6885,12 @@
       <c r="J27" s="2">
         <v>-50</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G28" s="76"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="2">
         <v>3</v>
       </c>
@@ -6592,13 +6900,13 @@
       <c r="J28" s="2">
         <v>25</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G29" s="75" t="s">
-        <v>222</v>
+      <c r="G29" s="74" t="s">
+        <v>221</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -6610,13 +6918,10 @@
         <f xml:space="preserve"> I29 + 25</f>
         <v>25</v>
       </c>
-      <c r="K29" s="33">
-        <f>(J29-I29)*1484*1.1</f>
-        <v>40810</v>
-      </c>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G30" s="76"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="2">
         <v>2</v>
       </c>
@@ -6626,14 +6931,14 @@
       <c r="J30" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="32">
         <f>(J30-I30)*1484*1.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G31" s="75" t="s">
-        <v>238</v>
+      <c r="G31" s="74" t="s">
+        <v>237</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -6644,12 +6949,12 @@
       <c r="J31" s="2">
         <v>50</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G32" s="76"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="2">
         <v>2</v>
       </c>
@@ -6659,23 +6964,23 @@
       <c r="J32" s="27">
         <v>-1</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="32">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:K19"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6687,8 +6992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6711,22 +7016,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="E15" s="92" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="E15" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="94"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -6735,50 +7040,50 @@
       <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="98" t="s">
+      <c r="E16" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="97" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="100"/>
+      <c r="H16" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="99"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>163</v>
-      </c>
       <c r="I17" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="74" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2">
@@ -6790,12 +7095,12 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E19" s="85"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="2">
         <v>2</v>
       </c>
@@ -6805,18 +7110,18 @@
       <c r="H19" s="2">
         <v>28</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="32">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E20" s="35"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E21" s="34"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E22" s="34"/>
+      <c r="E22" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Module02/DuongThaiBao_Module02.xlsx
+++ b/Module02/DuongThaiBao_Module02.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Lab-KiemThuPhanMem\Module02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitPull\1.IUH-Project\Lab-KiemThuPhanMem\Module02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565B271-10AD-4082-851C-F57B267F7837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 01" sheetId="1" r:id="rId1"/>
@@ -24,19 +25,30 @@
     <sheet name="Bài 10" sheetId="10" r:id="rId10"/>
     <sheet name="Bài 11" sheetId="11" r:id="rId11"/>
     <sheet name="Bài 12" sheetId="12" r:id="rId12"/>
-    <sheet name="Bài 13" sheetId="13" r:id="rId13"/>
+    <sheet name="Bài 13" sheetId="14" r:id="rId13"/>
+    <sheet name="Bài 14" sheetId="13" r:id="rId14"/>
+    <sheet name="Bài 16" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="276">
   <si>
     <t>Đề bài</t>
   </si>
@@ -792,13 +804,85 @@
   </si>
   <si>
     <t>Actual result</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>&gt;=0</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>[4,3,2,5,1]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>Table of analysis</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Cuộc gọi bắt đầu từ 18h00 đến trước 8h00</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Cuộc gọi kéo dài hơn 60 phút</t>
+  </si>
+  <si>
+    <t>Thời gian cuộc gọi</t>
+  </si>
+  <si>
+    <t>Tổng chi phí</t>
+  </si>
+  <si>
+    <t>Tiền phải trả</t>
+  </si>
+  <si>
+    <t>Thời điểm bắt đầu cuộc gọi</t>
+  </si>
+  <si>
+    <t>left &gt; right</t>
+  </si>
+  <si>
+    <t>left &lt;= right</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,8 +914,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,6 +956,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1087,10 +1190,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1132,221 +1232,263 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,7 +1527,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1475,7 +1623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1518,7 +1672,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1561,7 +1721,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1599,7 +1765,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1630,19 +1802,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
+      <xdr:colOff>449581</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2219326</xdr:colOff>
+      <xdr:colOff>2049781</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>109315</xdr:rowOff>
+      <xdr:rowOff>4540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A27162-B0A4-4D03-8B3F-266D6F93E26A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1655,8 +1833,106 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619126" y="285751"/>
-          <a:ext cx="2914650" cy="1995264"/>
+          <a:off x="449581" y="175261"/>
+          <a:ext cx="2948940" cy="1932399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A3647C-C694-42C7-968E-7B511008C085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="152400"/>
+          <a:ext cx="4502920" cy="1996440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71443</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>510540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647DF273-1201-F95E-A19B-7ECD1D998520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="525780" y="30480"/>
+          <a:ext cx="5725483" cy="2575560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1688,7 +1964,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +2013,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +2062,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5471E261-EBBF-4C68-BC93-F14C0A46477F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5471E261-EBBF-4C68-BC93-F14C0A46477F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +2111,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F5AD3C-1964-4D9E-B833-8D89FCB1798A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F5AD3C-1964-4D9E-B833-8D89FCB1798A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +2159,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EBD280-56B2-4F51-88A9-EDFA3E414581}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EBD280-56B2-4F51-88A9-EDFA3E414581}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +2207,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D169A85-CFD8-4651-B4E4-E967DC051F94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D169A85-CFD8-4651-B4E4-E967DC051F94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +2252,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2014,7 +2296,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2057,7 +2345,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2345,321 +2639,321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="1"/>
-    <col min="13" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="9.109375" style="1"/>
+    <col min="13" max="14" width="9.109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="37" t="s">
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+    <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="42" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37" t="s">
         <v>224</v>
       </c>
       <c r="H27" s="5">
         <v>5.59</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="43" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="38" t="s">
         <v>225</v>
       </c>
       <c r="H28" s="2">
         <v>24.01</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="43" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="38" t="s">
         <v>226</v>
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="43" t="s">
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="38" t="s">
         <v>227</v>
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="43" t="s">
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="38" t="s">
         <v>228</v>
       </c>
       <c r="H31" s="2">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="58"/>
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="43" t="s">
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="38" t="s">
         <v>233</v>
       </c>
       <c r="H32" s="2">
         <v>120.01</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="58"/>
       <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="43" t="s">
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="38" t="s">
         <v>229</v>
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="43" t="s">
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="38" t="s">
         <v>230</v>
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="58"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="43" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="38" t="s">
         <v>231</v>
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="58"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="43" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="38" t="s">
         <v>232</v>
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+    <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="56"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="52"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="52" t="s">
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
+    <row r="40" spans="1:8" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2672,10 +2966,10 @@
       <c r="F40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="53"/>
-    </row>
-    <row r="41" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
+      <c r="G40" s="49"/>
+    </row>
+    <row r="41" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
         <v>84</v>
       </c>
       <c r="B41" s="5">
@@ -2697,8 +2991,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
       <c r="B42" s="5">
         <v>2</v>
       </c>
@@ -2718,8 +3012,8 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="46"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
       <c r="B43" s="5">
         <v>3</v>
       </c>
@@ -2739,14 +3033,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="49" t="s">
+    <row r="44" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="45" t="s">
         <v>85</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -2762,8 +3056,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="49"/>
+    <row r="45" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
       <c r="B45" s="5">
         <v>2</v>
       </c>
@@ -2781,15 +3075,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
+    <row r="46" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
       <c r="B46" s="5">
         <v>3</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="9">
@@ -2802,8 +3096,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="49"/>
+    <row r="47" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
       <c r="B47" s="5">
         <v>4</v>
       </c>
@@ -2821,8 +3115,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="49"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
       <c r="B48" s="5">
         <v>5</v>
       </c>
@@ -2832,7 +3126,7 @@
       <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="18">
         <v>5.9</v>
       </c>
       <c r="F48" s="9">
@@ -2842,8 +3136,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
       <c r="B49" s="5">
         <v>6</v>
       </c>
@@ -2853,7 +3147,7 @@
       <c r="D49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="18">
         <v>24.1</v>
       </c>
       <c r="F49" s="9">
@@ -2863,8 +3157,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
+    <row r="50" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
       <c r="B50" s="5">
         <v>7</v>
       </c>
@@ -2874,7 +3168,7 @@
       <c r="D50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="18" t="s">
         <v>33</v>
       </c>
       <c r="F50" s="9">
@@ -2884,8 +3178,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="49"/>
+    <row r="51" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
       <c r="B51" s="5">
         <v>8</v>
       </c>
@@ -2903,8 +3197,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
       <c r="B52" s="5">
         <v>9</v>
       </c>
@@ -2917,15 +3211,15 @@
       <c r="E52" s="9">
         <v>6</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="19">
         <v>-0.01</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
       <c r="B53" s="5">
         <v>10</v>
       </c>
@@ -2938,15 +3232,15 @@
       <c r="E53" s="9">
         <v>6</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="19">
         <v>120.01</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="45"/>
       <c r="B54" s="5">
         <v>11</v>
       </c>
@@ -2959,15 +3253,15 @@
       <c r="E54" s="9">
         <v>6</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
+    <row r="55" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
       <c r="B55" s="5">
         <v>12</v>
       </c>
@@ -2985,8 +3279,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
+    <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="46" t="s">
         <v>221</v>
       </c>
       <c r="B56" s="5">
@@ -3008,8 +3302,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="46"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="56"/>
       <c r="B57" s="5">
         <v>2</v>
       </c>
@@ -3029,8 +3323,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="56"/>
       <c r="B58" s="5">
         <v>3</v>
       </c>
@@ -3050,8 +3344,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="56"/>
       <c r="B59" s="5">
         <v>4</v>
       </c>
@@ -3071,8 +3365,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="56"/>
       <c r="B60" s="5">
         <v>5</v>
       </c>
@@ -3092,8 +3386,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="60"/>
       <c r="B61" s="5">
         <v>6</v>
       </c>
@@ -3113,8 +3407,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="45" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="46" t="s">
         <v>237</v>
       </c>
       <c r="B62" s="5">
@@ -3126,7 +3420,7 @@
       <c r="D62" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="18">
         <v>5.59</v>
       </c>
       <c r="F62" s="9">
@@ -3136,8 +3430,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
       <c r="B63" s="5">
         <v>2</v>
       </c>
@@ -3147,7 +3441,7 @@
       <c r="D63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="26">
         <v>24.01</v>
       </c>
       <c r="F63" s="9">
@@ -3157,8 +3451,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="46"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="56"/>
       <c r="B64" s="5">
         <v>3</v>
       </c>
@@ -3171,15 +3465,15 @@
       <c r="E64" s="9">
         <v>6</v>
       </c>
-      <c r="F64" s="27">
+      <c r="F64" s="26">
         <v>-0.01</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="60"/>
       <c r="B65" s="5">
         <v>4</v>
       </c>
@@ -3192,24 +3486,34 @@
       <c r="E65" s="9">
         <v>6</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65" s="26">
         <v>120.01</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A56:A61"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A44:A55"/>
     <mergeCell ref="C34:F34"/>
@@ -3226,19 +3530,6 @@
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="A56:A61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3247,34 +3538,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="D11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="22.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="22.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="85" t="s">
         <v>1</v>
       </c>
@@ -3290,62 +3582,72 @@
       <c r="J15" s="83"/>
       <c r="K15" s="83"/>
       <c r="L15" s="83"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="97" t="s">
+      <c r="G16" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="97" t="s">
+      <c r="H16" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="94" t="s">
+      <c r="I16" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
       <c r="L16" s="100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="M16" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="N16" s="94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>168</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="24" t="s">
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="23" t="s">
         <v>166</v>
       </c>
       <c r="L17" s="101"/>
-    </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="M17" s="99"/>
+      <c r="N17" s="95"/>
+    </row>
+    <row r="18" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>172</v>
       </c>
@@ -3355,7 +3657,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="G18" s="74" t="s">
+      <c r="G18" s="72" t="s">
         <v>84</v>
       </c>
       <c r="H18" s="2">
@@ -3367,21 +3669,27 @@
       <c r="J18" s="2">
         <v>5</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="31">
         <v>12</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="M18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="G19" s="84"/>
@@ -3394,21 +3702,27 @@
       <c r="J19" s="2">
         <v>12</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="31">
         <v>5</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="31" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="M19" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>170</v>
       </c>
       <c r="D20" s="5">
@@ -3417,7 +3731,7 @@
       <c r="E20" s="5">
         <v>-1</v>
       </c>
-      <c r="G20" s="75"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="2">
         <v>3</v>
       </c>
@@ -3427,15 +3741,21 @@
       <c r="J20" s="2">
         <v>5</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="31">
         <v>0</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="31" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+      <c r="M20" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>171</v>
@@ -3446,7 +3766,7 @@
       <c r="E21" s="5">
         <v>-1</v>
       </c>
-      <c r="G21" s="69" t="s">
+      <c r="G21" s="65" t="s">
         <v>85</v>
       </c>
       <c r="H21" s="2">
@@ -3458,33 +3778,45 @@
       <c r="J21" s="2">
         <v>5</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="39">
         <v>-1</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G22" s="74"/>
+      <c r="M21" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="72"/>
       <c r="H22" s="2">
         <v>2</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="26">
         <v>-1</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="31">
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G23" s="38" t="s">
+      <c r="M22" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="35" t="s">
         <v>221</v>
       </c>
       <c r="H23" s="2">
@@ -3496,15 +3828,21 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="31">
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G24" s="69" t="s">
+      <c r="M23" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="65" t="s">
         <v>237</v>
       </c>
       <c r="H24" s="2">
@@ -3516,43 +3854,57 @@
       <c r="J24" s="2">
         <v>5</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="39">
         <v>-1</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G25" s="69"/>
+      <c r="M24" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="65"/>
       <c r="H25" s="2">
         <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="26">
         <v>-1</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="31">
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="M25" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3560,34 +3912,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="83" t="s">
         <v>1</v>
       </c>
@@ -3601,54 +3954,64 @@
       <c r="H15" s="83"/>
       <c r="I15" s="83"/>
       <c r="J15" s="83"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="94" t="s">
+      <c r="G16" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="96"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="K16" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="L16" s="94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>180</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="24" t="s">
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>189</v>
       </c>
       <c r="J17" s="101"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="99"/>
+      <c r="L17" s="95"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>181</v>
       </c>
@@ -3656,7 +4019,7 @@
         <v>182</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="72" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2">
@@ -3664,17 +4027,21 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="32"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="34"/>
       <c r="E19" s="84"/>
       <c r="F19" s="2">
         <v>2</v>
@@ -3683,21 +4050,25 @@
         <v>176</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="31" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="K19" s="31"/>
+      <c r="L19" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="34"/>
       <c r="E20" s="84"/>
       <c r="F20" s="2">
         <v>3</v>
@@ -3708,13 +4079,17 @@
       <c r="H20" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32" t="s">
+      <c r="I20" s="31"/>
+      <c r="J20" s="31" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="K20" s="31"/>
+      <c r="L20" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>186</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3731,15 +4106,19 @@
       <c r="H21" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="31" t="s">
         <v>192</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="75"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="73"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -3749,21 +4128,27 @@
       <c r="H22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="31" t="s">
         <v>194</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="34"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="E15:L15"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:J15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:I16"/>
@@ -3775,32 +4160,33 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="83" t="s">
         <v>1</v>
       </c>
@@ -3812,50 +4198,60 @@
       <c r="F15" s="83"/>
       <c r="G15" s="83"/>
       <c r="H15" s="83"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I16" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="J16" s="94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="24" t="s">
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="23" t="s">
         <v>198</v>
       </c>
       <c r="H17" s="101"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="E18" s="31" t="s">
+      <c r="I17" s="99"/>
+      <c r="J17" s="95"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="E18" s="30" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2">
@@ -3867,9 +4263,15 @@
       <c r="H18" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="31" t="s">
+      <c r="I18" s="31">
+        <v>2147483647</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="30" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="2">
@@ -3878,26 +4280,34 @@
       <c r="G19" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="108">
         <v>2147483647</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="33"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E22" s="33"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E23" s="33"/>
+      <c r="I19" s="31">
+        <v>2147483647</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E15:J15"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="H16:H17"/>
@@ -3908,33 +4318,34 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64731889-5582-4E31-A74D-94F47991D639}">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="83" t="s">
         <v>1</v>
       </c>
@@ -3947,150 +4358,796 @@
       <c r="G15" s="83"/>
       <c r="H15" s="83"/>
       <c r="I15" s="83"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="103"/>
+      <c r="I16" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="101"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="95"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="105"/>
+      <c r="B18" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="E18" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="73"/>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="107">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="73"/>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="107">
+        <v>6</v>
+      </c>
+      <c r="I21" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E15:K15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="J21:K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="G15" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+    </row>
+    <row r="16" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="D16" s="106" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="106" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="H16" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="I16" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="101"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="E18" s="74" t="s">
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="N16" s="94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="L17" s="101"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="95"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="40"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="2">
+      <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2" t="b">
+      <c r="I19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>4</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G20" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="2">
+      <c r="I20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J20" s="107">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>4</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="65"/>
+      <c r="H21" s="2">
         <v>2</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="32" t="b">
+      <c r="I21" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J21" s="107">
+        <v>4</v>
+      </c>
+      <c r="K21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="L21" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="65"/>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="107">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="I23" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
         <v>4</v>
       </c>
-      <c r="I20" s="2" t="b">
+      <c r="L23" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="65"/>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E21" s="75"/>
-      <c r="F21" s="2">
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J25" s="107">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>4</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="65"/>
+      <c r="H26" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H21" s="2">
-        <v>6</v>
-      </c>
-      <c r="I21" s="32" t="b">
+      <c r="I26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E23" s="33"/>
+      <c r="K26" s="107">
+        <v>-1</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I16:I17"/>
+  <mergeCells count="12">
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="L16:L17"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="I16:K16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0AA234-44BE-4A54-A17D-DEA5993028D5}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" style="109" customWidth="1"/>
+    <col min="2" max="7" width="8.88671875" style="109"/>
+    <col min="8" max="8" width="18.5546875" style="109" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="109" customWidth="1"/>
+    <col min="10" max="10" width="14" style="109" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" style="109" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="109" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="109"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="61.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="G13" s="121" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="120" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="120" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="120" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="117"/>
+      <c r="J14" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="117"/>
+      <c r="L14" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="M14" s="94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="118"/>
+      <c r="H15" s="119" t="s">
+        <v>273</v>
+      </c>
+      <c r="I15" s="119" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="120" t="s">
+        <v>271</v>
+      </c>
+      <c r="K15" s="120" t="s">
+        <v>272</v>
+      </c>
+      <c r="L15" s="99"/>
+      <c r="M15" s="95"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="110" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="110" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="110">
+        <v>1</v>
+      </c>
+      <c r="H16" s="110">
+        <v>18</v>
+      </c>
+      <c r="I16" s="110">
+        <v>120</v>
+      </c>
+      <c r="J16" s="110">
+        <f>0.4*I16</f>
+        <v>48</v>
+      </c>
+      <c r="K16" s="110">
+        <f>((0.5*J16)*0.85)*1.04</f>
+        <v>21.215999999999998</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="110">
+        <v>2</v>
+      </c>
+      <c r="H17" s="110">
+        <v>20</v>
+      </c>
+      <c r="I17" s="110">
+        <v>30</v>
+      </c>
+      <c r="J17" s="110">
+        <f t="shared" ref="J17:J19" si="0">0.4*I17</f>
+        <v>12</v>
+      </c>
+      <c r="K17" s="110">
+        <f>(0.5*J17)*1.04</f>
+        <v>6.24</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G18" s="110">
+        <v>3</v>
+      </c>
+      <c r="H18" s="110">
+        <v>8</v>
+      </c>
+      <c r="I18" s="110">
+        <v>120</v>
+      </c>
+      <c r="J18" s="110">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="K18" s="110">
+        <f>(J18*0.85)*1.04</f>
+        <v>42.431999999999995</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="110">
+        <v>4</v>
+      </c>
+      <c r="H19" s="110">
+        <v>10</v>
+      </c>
+      <c r="I19" s="110">
+        <v>30</v>
+      </c>
+      <c r="J19" s="110">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K19" s="110">
+        <f>(J19)*1.04</f>
+        <v>12.48</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="L14:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4098,76 +5155,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" style="13" customWidth="1"/>
     <col min="3" max="3" width="16" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="50.140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="50.109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="65"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="37" t="s">
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="5" t="s">
         <v>208</v>
       </c>
@@ -4175,15 +5232,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="5" t="s">
         <v>209</v>
       </c>
@@ -4191,55 +5248,55 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
+    <row r="30" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="69" t="s">
+    <row r="32" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="5">
         <v>18</v>
       </c>
@@ -4247,15 +5304,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="5">
         <v>64</v>
       </c>
@@ -4263,83 +5320,83 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="69"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="69" t="s">
+    <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="69"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="65"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="69" t="s">
+    <row r="39" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="5" t="s">
         <v>208</v>
       </c>
@@ -4347,99 +5404,99 @@
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="69"/>
+    <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="63"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="69"/>
+    <row r="41" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="69"/>
+    <row r="42" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="65"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="69"/>
+    <row r="43" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="65"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="63"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="65"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="73" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-    </row>
-    <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52" t="s">
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+    </row>
+    <row r="47" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="52" t="s">
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="6" t="s">
         <v>54</v>
       </c>
@@ -4452,9 +5509,9 @@
       <c r="F48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="53"/>
-    </row>
-    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G48" s="49"/>
+    </row>
+    <row r="49" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>84</v>
       </c>
@@ -4477,14 +5534,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="45" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="46" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="4">
@@ -4500,12 +5557,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="46"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
       <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="4">
@@ -4521,12 +5578,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="46"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
       <c r="B52" s="4">
         <v>3</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D52" s="4">
@@ -4542,12 +5599,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="46"/>
+    <row r="53" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
       <c r="B53" s="4">
         <v>4</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="4">
@@ -4563,8 +5620,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="46"/>
+    <row r="54" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="56"/>
       <c r="B54" s="4">
         <v>5</v>
       </c>
@@ -4582,15 +5639,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="46"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="56"/>
       <c r="B55" s="4">
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="20">
         <v>17</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -4603,15 +5660,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="46"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="56"/>
       <c r="B56" s="4">
         <v>7</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="20">
         <v>65</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -4624,15 +5681,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="46"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="56"/>
       <c r="B57" s="4">
         <v>8</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="20" t="s">
         <v>33</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -4645,15 +5702,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="56"/>
       <c r="B58" s="4">
         <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="20">
         <v>21.2</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -4666,15 +5723,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
+    <row r="59" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="56"/>
       <c r="B59" s="4">
         <v>10</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="21"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="4" t="s">
         <v>56</v>
       </c>
@@ -4685,8 +5742,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
+    <row r="60" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="56"/>
       <c r="B60" s="4">
         <v>11</v>
       </c>
@@ -4696,7 +5753,7 @@
       <c r="D60" s="4">
         <v>21</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="20" t="s">
         <v>70</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -4706,8 +5763,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="56"/>
       <c r="B61" s="4">
         <v>12</v>
       </c>
@@ -4725,8 +5782,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="56"/>
       <c r="B62" s="4">
         <v>13</v>
       </c>
@@ -4736,18 +5793,18 @@
       <c r="D62" s="4">
         <v>21</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="20" t="s">
         <v>73</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
       <c r="B63" s="4">
         <v>14</v>
       </c>
@@ -4757,18 +5814,18 @@
       <c r="D63" s="4">
         <v>21</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="20" t="s">
         <v>75</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="46"/>
+    <row r="64" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="56"/>
       <c r="B64" s="4">
         <v>15</v>
       </c>
@@ -4778,18 +5835,18 @@
       <c r="D64" s="4">
         <v>21</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="20" t="s">
         <v>77</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="56"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
         <v>55</v>
@@ -4797,18 +5854,18 @@
       <c r="D65" s="4">
         <v>21</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="60"/>
       <c r="B66" s="4">
         <v>16</v>
       </c>
@@ -4818,7 +5875,7 @@
       <c r="D66" s="4">
         <v>21</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="21" t="s">
         <v>56</v>
       </c>
       <c r="F66" s="4"/>
@@ -4826,8 +5883,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="49" t="s">
+    <row r="67" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="45" t="s">
         <v>221</v>
       </c>
       <c r="B67" s="4">
@@ -4849,8 +5906,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="49"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="45"/>
       <c r="B68" s="4">
         <v>2</v>
       </c>
@@ -4870,14 +5927,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="66" t="s">
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="69" t="s">
         <v>221</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D69" s="4">
@@ -4893,12 +5950,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="67"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="70"/>
       <c r="B70" s="4">
         <v>2</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>239</v>
       </c>
       <c r="D70" s="4">
@@ -4914,15 +5971,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="67"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="70"/>
       <c r="B71" s="4">
         <v>3</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="20">
         <v>17</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -4935,15 +5992,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="67"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="70"/>
       <c r="B72" s="4">
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="20">
         <v>65</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -4956,8 +6013,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="67"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="70"/>
       <c r="B73" s="4">
         <v>5</v>
       </c>
@@ -4977,8 +6034,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="67"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="70"/>
       <c r="B74" s="4">
         <v>6</v>
       </c>
@@ -4998,164 +6055,180 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="A50:A66"/>
@@ -5172,22 +6245,6 @@
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="C42:F42"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C36:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5195,38 +6252,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -5236,15 +6293,15 @@
       <c r="C20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5260,8 +6317,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+    <row r="22" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
       <c r="B22" s="5" t="s">
         <v>98</v>
       </c>
@@ -5275,49 +6332,49 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="105" t="s">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="s">
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="80" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="59" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
-      <c r="B26" s="79"/>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="79"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81" t="s">
+      <c r="D26" s="77"/>
+      <c r="E26" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="F26" s="62"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
+      <c r="F26" s="59"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="2">
@@ -5336,8 +6393,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -5354,8 +6411,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="72" t="s">
         <v>85</v>
       </c>
       <c r="B29" s="2">
@@ -5374,8 +6431,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
       <c r="B30" s="2">
         <v>2</v>
       </c>
@@ -5392,8 +6449,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="74" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="72" t="s">
         <v>221</v>
       </c>
       <c r="B31" s="2">
@@ -5412,8 +6469,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="75"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
       <c r="B32" s="2">
         <v>2</v>
       </c>
@@ -5430,8 +6487,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="74" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="72" t="s">
         <v>237</v>
       </c>
       <c r="B33" s="2">
@@ -5450,8 +6507,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
       <c r="B34" s="2">
         <v>2</v>
       </c>
@@ -5470,11 +6527,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="E25:E26"/>
@@ -5482,6 +6534,11 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5489,32 +6546,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="J27" sqref="J27:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="21.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="19.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="21.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="19.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="19.44140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="85" t="s">
         <v>1</v>
       </c>
@@ -5531,20 +6588,20 @@
       <c r="K24" s="83"/>
       <c r="L24" s="83"/>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G25" s="82" t="s">
@@ -5553,7 +6610,7 @@
       <c r="H25" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="82" t="s">
@@ -5566,8 +6623,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="69" t="s">
+    <row r="26" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
         <v>103</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -5584,22 +6641,22 @@
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="82"/>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="23" t="s">
         <v>103</v>
       </c>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
       <c r="L26" s="82"/>
     </row>
-    <row r="27" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="69"/>
+    <row r="27" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
       <c r="B27" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="72" t="s">
         <v>104</v>
       </c>
       <c r="H27" s="2">
@@ -5618,8 +6675,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="65"/>
       <c r="B28" s="4" t="s">
         <v>105</v>
       </c>
@@ -5643,8 +6700,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G29" s="75"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="73"/>
       <c r="H29" s="2">
         <v>3</v>
       </c>
@@ -5661,8 +6718,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G30" s="29" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="28" t="s">
         <v>85</v>
       </c>
       <c r="H30" s="2">
@@ -5681,8 +6738,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G31" s="39" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="28" t="s">
         <v>221</v>
       </c>
       <c r="H31" s="2">
@@ -5701,8 +6758,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G32" s="39" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="28" t="s">
         <v>237</v>
       </c>
       <c r="H32" s="2">
@@ -5723,15 +6780,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A24:E24"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5739,31 +6796,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="31.28515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="21.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="31.33203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="21.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
         <v>1</v>
       </c>
@@ -5780,20 +6837,20 @@
       <c r="K16" s="83"/>
       <c r="L16" s="83"/>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G17" s="82" t="s">
@@ -5802,7 +6859,7 @@
       <c r="H17" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="82" t="s">
@@ -5815,7 +6872,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>108</v>
       </c>
@@ -5829,14 +6886,14 @@
       <c r="E18" s="5"/>
       <c r="G18" s="82"/>
       <c r="H18" s="82"/>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="23" t="s">
         <v>108</v>
       </c>
       <c r="J18" s="82"/>
       <c r="K18" s="82"/>
       <c r="L18" s="82"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G19" s="2" t="s">
         <v>84</v>
       </c>
@@ -5856,7 +6913,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G20" s="2" t="s">
         <v>85</v>
       </c>
@@ -5878,13 +6935,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5892,34 +6949,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScale="116" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:G29"/>
+    <sheetView topLeftCell="A7" zoomScale="116" workbookViewId="0">
+      <selection activeCell="I20" sqref="I19:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="85" t="s">
         <v>1</v>
       </c>
@@ -5938,20 +6995,20 @@
       <c r="M18" s="83"/>
       <c r="N18" s="83"/>
     </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G19" s="82" t="s">
@@ -5960,11 +7017,11 @@
       <c r="H19" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="94" t="s">
+      <c r="I19" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
       <c r="L19" s="82" t="s">
         <v>109</v>
       </c>
@@ -5975,7 +7032,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>110</v>
       </c>
@@ -5987,20 +7044,20 @@
       <c r="E20" s="5"/>
       <c r="G20" s="82"/>
       <c r="H20" s="82"/>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="24" t="s">
         <v>114</v>
       </c>
       <c r="L20" s="82"/>
       <c r="M20" s="82"/>
       <c r="N20" s="82"/>
     </row>
-    <row r="21" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>115</v>
       </c>
@@ -6035,7 +7092,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>117</v>
       </c>
@@ -6068,8 +7125,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="65" t="s">
         <v>155</v>
       </c>
       <c r="B23" s="2"/>
@@ -6101,8 +7158,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="69"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>116</v>
@@ -6115,13 +7172,13 @@
       <c r="H24" s="2">
         <v>1</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <v>3</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="26">
         <v>3</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="26">
         <v>6</v>
       </c>
       <c r="L24" s="2"/>
@@ -6132,8 +7189,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="69"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="65"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>118</v>
@@ -6144,13 +7201,13 @@
       <c r="H25" s="2">
         <v>2</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <v>5</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="26">
         <v>2</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="26">
         <v>2</v>
       </c>
       <c r="L25" s="2"/>
@@ -6159,8 +7216,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="65"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>119</v>
@@ -6175,13 +7232,13 @@
       <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <v>3</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="26">
         <v>6</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="26">
         <v>3</v>
       </c>
       <c r="L26" s="2"/>
@@ -6190,8 +7247,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="69"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>120</v>
@@ -6206,13 +7263,13 @@
       <c r="H27" s="2">
         <v>4</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <v>0</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="27">
         <v>7</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="27">
         <v>7</v>
       </c>
       <c r="L27" s="2"/>
@@ -6223,8 +7280,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="65"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>121</v>
@@ -6239,13 +7296,13 @@
       <c r="H28" s="2">
         <v>5</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="27">
         <v>7</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="26">
         <v>0</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="27">
         <v>7</v>
       </c>
       <c r="L28" s="2"/>
@@ -6256,18 +7313,18 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G29" s="90"/>
       <c r="H29" s="2">
         <v>6</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="27">
         <v>7</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="27">
         <v>7</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="26">
         <v>0</v>
       </c>
       <c r="L29" s="2"/>
@@ -6296,82 +7353,82 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="J18" sqref="G18:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="23.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="29.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="23.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="83" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="83"/>
       <c r="C17" s="83"/>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="94" t="s">
+      <c r="G18" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="97" t="s">
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="97" t="s">
+      <c r="K18" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="L18" s="94" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>123</v>
       </c>
@@ -6379,22 +7436,22 @@
         <v>124</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="24" t="s">
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J19" s="95"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="95"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>126</v>
       </c>
@@ -6427,7 +7484,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
@@ -6458,7 +7515,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>128</v>
       </c>
@@ -6489,7 +7546,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>129</v>
       </c>
@@ -6520,7 +7577,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
@@ -6551,7 +7608,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E25" s="2" t="s">
         <v>85</v>
       </c>
@@ -6595,80 +7652,90 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="D15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I18:K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="22.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="22.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="83" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="83"/>
       <c r="C17" s="83"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="G17" s="91" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="G17" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="97" t="s">
+      <c r="H18" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="94" t="s">
+      <c r="I18" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="J18" s="92"/>
+      <c r="K18" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="M18" s="94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>136</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -6677,18 +7744,20 @@
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="24" t="s">
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="98"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="K19" s="95"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="95"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -6697,7 +7766,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="G20" s="74" t="s">
+      <c r="G20" s="72" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="2">
@@ -6710,12 +7779,23 @@
         <f xml:space="preserve"> I20 + 25</f>
         <v>50</v>
       </c>
-      <c r="K20" s="32">
-        <v>37100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="K20" s="31">
+        <f>37100*1.1</f>
+        <v>40810</v>
+      </c>
+      <c r="L20" s="31">
+        <f>37100*1.1</f>
+        <v>40810</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>138</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -6735,12 +7815,23 @@
         <f xml:space="preserve"> I21 + 51</f>
         <v>76</v>
       </c>
-      <c r="K21" s="32">
-        <v>75733</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="K21" s="31">
+        <f>1.1*75733</f>
+        <v>83306.3</v>
+      </c>
+      <c r="L21" s="31">
+        <f>1.1*75733</f>
+        <v>83306.3</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>139</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -6760,12 +7851,23 @@
         <f>I22 + 151</f>
         <v>176</v>
       </c>
-      <c r="K22" s="32">
-        <v>241936</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="K22" s="31">
+        <f>1.1*241936</f>
+        <v>266129.60000000003</v>
+      </c>
+      <c r="L22" s="31">
+        <f>1.1*241936</f>
+        <v>266129.60000000003</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -6785,12 +7887,23 @@
         <f xml:space="preserve"> I23 + 251</f>
         <v>276</v>
       </c>
-      <c r="K23" s="32">
-        <v>443792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="K23" s="31">
+        <f>1.1*443792</f>
+        <v>488171.2</v>
+      </c>
+      <c r="L23" s="31">
+        <f>1.1*443792</f>
+        <v>488171.2</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>141</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -6810,9 +7923,22 @@
         <f xml:space="preserve"> I24 + 351</f>
         <v>376</v>
       </c>
-      <c r="K24" s="32"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="31">
+        <f>1.1*681303</f>
+        <v>749433.3</v>
+      </c>
+      <c r="L24" s="31">
+        <f>1.1*681303</f>
+        <v>749433.3</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="90" t="s">
         <v>160</v>
       </c>
@@ -6837,9 +7963,21 @@
         <f xml:space="preserve"> I25 + 500</f>
         <v>525</v>
       </c>
-      <c r="K25" s="32"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="31">
+        <f>1.1*1054250</f>
+        <v>1159675</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1168915</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="90"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4" t="s">
@@ -6851,7 +7989,7 @@
       <c r="E26" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G26" s="74" t="s">
+      <c r="G26" s="72" t="s">
         <v>84</v>
       </c>
       <c r="H26" s="2">
@@ -6863,11 +8001,20 @@
       <c r="J26" s="2">
         <v>50</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="31">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="2">
+        <v>84992.6</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N26" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="90"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4" t="s">
@@ -6885,12 +8032,21 @@
       <c r="J27" s="2">
         <v>-50</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="31">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G28" s="75"/>
+      <c r="L27" s="2">
+        <v>-122430</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N27" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G28" s="73"/>
       <c r="H28" s="2">
         <v>3</v>
       </c>
@@ -6900,12 +8056,21 @@
       <c r="J28" s="2">
         <v>25</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="31">
         <v>-1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G29" s="74" t="s">
+      <c r="L28" s="2">
+        <v>-40810</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N28" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G29" s="72" t="s">
         <v>221</v>
       </c>
       <c r="H29" s="2">
@@ -6918,10 +8083,23 @@
         <f xml:space="preserve"> I29 + 25</f>
         <v>25</v>
       </c>
-      <c r="K29" s="32"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G30" s="75"/>
+      <c r="K29" s="31">
+        <f>1.1*37100</f>
+        <v>40810</v>
+      </c>
+      <c r="L29" s="31">
+        <f>1.1*37100</f>
+        <v>40810</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N29" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="73"/>
       <c r="H30" s="2">
         <v>2</v>
       </c>
@@ -6931,56 +8109,85 @@
       <c r="J30" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="31">
         <f>(J30-I30)*1484*1.1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G31" s="74" t="s">
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N30" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G31" s="72" t="s">
         <v>237</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="26">
         <v>-1</v>
       </c>
       <c r="J31" s="2">
         <v>50</v>
       </c>
-      <c r="K31" s="32">
+      <c r="K31" s="31">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G32" s="75"/>
+      <c r="L31" s="2">
+        <v>83306.3</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N31" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G32" s="73"/>
       <c r="H32" s="2">
         <v>2</v>
       </c>
       <c r="I32" s="2">
         <v>25</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="26">
         <v>-1</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K32" s="31">
         <v>-1</v>
       </c>
+      <c r="L32" s="2">
+        <v>-42442.400000000001</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N32" s="2">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:K19"/>
+  <mergeCells count="13">
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="G17:M17"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G20:G25"/>
     <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6989,101 +8196,110 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="83" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="83"/>
       <c r="C15" s="83"/>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="99" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I16" s="99"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
+      <c r="J16" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
         <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="24" t="s">
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="95"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
       <c r="B18" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="72" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2">
@@ -7095,11 +8311,17 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E19" s="84"/>
       <c r="F19" s="2">
         <v>2</v>
@@ -7110,21 +8332,29 @@
       <c r="H19" s="2">
         <v>28</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="31">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E21" s="33"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E22" s="33"/>
+      <c r="J19" s="31">
+        <v>7</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="E15:I15"/>
